--- a/data/preprocessed/video/S1_heave.xlsx
+++ b/data/preprocessed/video/S1_heave.xlsx
@@ -882,10 +882,10 @@
         <v>0.06244833773512631</v>
       </c>
       <c r="J3" t="n">
-        <v>0.027902663252757</v>
+        <v>0.02789258281083043</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03661216507731699</v>
+        <v>0.03662224551924356</v>
       </c>
       <c r="L3" t="n">
         <v>0.02378984294671478</v>
@@ -1043,40 +1043,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06214256433002023</v>
+        <v>0.06216944550849109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04768049031269531</v>
+        <v>0.04747888147416383</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113384810790105</v>
+        <v>0.113431852852429</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4289698460380503</v>
+        <v>0.4290639301626983</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07339233752007689</v>
+        <v>0.07343265928778317</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03616862563254773</v>
+        <v>0.03617534592716545</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08623482053453223</v>
+        <v>0.0862617017130031</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0501468384373971</v>
+        <v>0.05011995725892623</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02616210694676855</v>
+        <v>0.02615538665215083</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03118216702620243</v>
+        <v>0.03119560761543786</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02055738123559337</v>
+        <v>0.02057754211944652</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01857489432336714</v>
+        <v>0.01853457255566084</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1228,40 +1228,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0522318098425435</v>
+        <v>0.05225197072639665</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04143061631821939</v>
+        <v>0.04127940968932078</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1035261385859156</v>
+        <v>0.1035614201326586</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4211457430293744</v>
+        <v>0.4212163061228604</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08204975706134957</v>
+        <v>0.08208503860809258</v>
       </c>
       <c r="G5" t="n">
         <v>0.04144069676014597</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08252353783189854</v>
+        <v>0.08254369871575169</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0604675308965545</v>
+        <v>0.06044737001270135</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04226225277716175</v>
+        <v>0.04225721255619846</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03305376907723635</v>
+        <v>0.03306384951916292</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01742404387008327</v>
+        <v>0.01743412431200984</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01640591923549928</v>
+        <v>0.01638071813068285</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1413,40 +1413,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04820064111610653</v>
+        <v>0.04821273764641842</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04081772544908369</v>
+        <v>0.04068063143888228</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09871575169855447</v>
+        <v>0.09877220217334327</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4449345779318966</v>
+        <v>0.4448660309267958</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08110320356444427</v>
+        <v>0.08081288683695893</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04503941452793291</v>
+        <v>0.04374105360779017</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07995806536158545</v>
+        <v>0.08109110703413237</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05438600028225237</v>
+        <v>0.05496260156045241</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03516058143989032</v>
+        <v>0.03516864579343158</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02987036551682426</v>
+        <v>0.02988246204713615</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01572145722868491</v>
+        <v>0.01573758593576742</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01940283462026975</v>
+        <v>0.0193826737364166</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1598,40 +1598,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04932360234672688</v>
+        <v>0.04864821273764642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03989166885076242</v>
+        <v>0.03961613677143606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1003776805575156</v>
+        <v>0.1003071174640296</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4594967843390254</v>
+        <v>0.4593690987412888</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07715906265330671</v>
+        <v>0.07699441543517267</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0453754292588187</v>
+        <v>0.04455891346276621</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07965565210378824</v>
+        <v>0.0789130595485306</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05076174539491812</v>
+        <v>0.05358426913435885</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03086631317916978</v>
+        <v>0.03121240835198215</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02809755179667077</v>
+        <v>0.02807739091281762</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01486193154707902</v>
+        <v>0.01480480904282844</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01855809358682284</v>
+        <v>0.01833968401174707</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1783,40 +1783,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04541095081608378</v>
+        <v>0.04483204543687195</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03639615560746183</v>
+        <v>0.03615998525375352</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08825858925655301</v>
+        <v>0.08819810660499357</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3947760269810228</v>
+        <v>0.3946665821829629</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06739783472107418</v>
+        <v>0.06725670853410214</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04253946493014254</v>
+        <v>0.04183959424781183</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07577036177266011</v>
+        <v>0.07513385386815358</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05515441796968379</v>
+        <v>0.05757372403206157</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05476272079767977</v>
+        <v>0.05505937380294752</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0952054538070949</v>
+        <v>0.0951881730495065</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02008312044400027</v>
+        <v>0.02003415829749976</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01907795637760759</v>
+        <v>0.01889074817039979</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1968,40 +1968,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04560895949678434</v>
+        <v>0.04510493740045564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03518326243422511</v>
+        <v>0.03498165359569363</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07978921795931533</v>
+        <v>0.07973377552871917</v>
       </c>
       <c r="E9" t="n">
-        <v>0.348906776073063</v>
+        <v>0.3488059716537973</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0624886595028326</v>
+        <v>0.06237525453115864</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04299812503780166</v>
+        <v>0.04238573819076228</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07462047136146449</v>
+        <v>0.07406352694502127</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05349186508336525</v>
+        <v>0.05561127799842745</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05918983488236124</v>
+        <v>0.05944436604100724</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1424265639805649</v>
+        <v>0.1424089232071934</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02729027640571763</v>
+        <v>0.02724491441704804</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02348490957843592</v>
+        <v>0.02331858228664745</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2153,40 +2153,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04471460028807663</v>
+        <v>0.04430914251280776</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03354771073163847</v>
+        <v>0.03337298307157786</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07320416927078083</v>
+        <v>0.07315264701204501</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3137862363886033</v>
+        <v>0.3136943923621612</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05902434762739998</v>
+        <v>0.05892802340454605</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04372895707747828</v>
+        <v>0.04318237311523737</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07450342623020594</v>
+        <v>0.07398148334822999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05386316136099407</v>
+        <v>0.0557627646396018</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06329845500426738</v>
+        <v>0.06351574453024021</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1764435752863406</v>
+        <v>0.176432374795311</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03256654771745193</v>
+        <v>0.0325083051640984</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02667956963233268</v>
+        <v>0.0265205226597134</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2338,40 +2338,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04768452248946594</v>
+        <v>0.04731961049172396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03185218039958872</v>
+        <v>0.03169492550553416</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06788976028709098</v>
+        <v>0.06784339025422874</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2843390254228745</v>
+        <v>0.2842563657990766</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05446865990605028</v>
+        <v>0.05438196810548174</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04151932420717324</v>
+        <v>0.04102739864115643</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07237555694441644</v>
+        <v>0.07190580835063809</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05724078143585815</v>
+        <v>0.05895042438660511</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07229894558577447</v>
+        <v>0.07249249007076471</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2023164855547267</v>
+        <v>0.2023084212011855</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03622507610733654</v>
+        <v>0.03617265780931836</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02753371907824439</v>
+        <v>0.02739057680288704</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2523,40 +2523,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04711598556480716</v>
+        <v>0.04678058176979569</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03082965702670951</v>
+        <v>0.03068853083973747</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06305774626977828</v>
+        <v>0.06301559169444898</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2610394585153158</v>
+        <v>0.2609643134027723</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05148723174569428</v>
+        <v>0.05140658821028168</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04159007058142156</v>
+        <v>0.04113553429091422</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07328664561381644</v>
+        <v>0.07285593582240828</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05662092589775499</v>
+        <v>0.0581879764154315</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07531373084486934</v>
+        <v>0.07550251003003972</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2241926940622531</v>
+        <v>0.224176198793646</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04256695704448774</v>
+        <v>0.04252480246915843</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02874392195172018</v>
+        <v>0.02860646137999417</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2708,40 +2708,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04717142799540332</v>
+        <v>0.04684045348548081</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02974906419897448</v>
+        <v>0.02960793801200244</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06188551306089259</v>
+        <v>0.0618569518087673</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2411695328723211</v>
+        <v>0.2410922494842174</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04997211077733648</v>
+        <v>0.04990154768385046</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04106436026155387</v>
+        <v>0.04065106214256433</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07283455306680645</v>
+        <v>0.07245317634725107</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05428485984825575</v>
+        <v>0.05571460252817483</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07695073352015752</v>
+        <v>0.07712210103290928</v>
       </c>
       <c r="K13" t="n">
-        <v>0.23959866400543</v>
+        <v>0.239586903489849</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04898590754218665</v>
+        <v>0.04896070643737022</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03149130057861737</v>
+        <v>0.03137033527549848</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2893,40 +2893,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04791311589561625</v>
+        <v>0.04760760096338008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03006142866226332</v>
+        <v>0.0299311583358276</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05808195554370027</v>
+        <v>0.05805559131096923</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2239858687712562</v>
+        <v>0.2239145302591604</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04753316077684538</v>
+        <v>0.04746802561362751</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0402442258453226</v>
+        <v>0.03986116905211278</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0707135246963073</v>
+        <v>0.07036303548470642</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0533534528615273</v>
+        <v>0.05467321533529876</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08421356269181918</v>
+        <v>0.08437174808820541</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2540969242245426</v>
+        <v>0.2540860683640063</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05232524778501674</v>
+        <v>0.05230198522672465</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03187745904626613</v>
+        <v>0.03176579876646408</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -3078,40 +3078,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0473017537088826</v>
+        <v>0.04701950133493853</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02869901816495635</v>
+        <v>0.02857805286183746</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05509393531812435</v>
+        <v>0.05505793373981516</v>
       </c>
       <c r="E15" t="n">
-        <v>0.209232532754236</v>
+        <v>0.2092886952163983</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04679629154942153</v>
+        <v>0.04672140826653841</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03993007053429223</v>
+        <v>0.03955709418300898</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07054293260216528</v>
+        <v>0.07015411555642599</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05249894155359771</v>
+        <v>0.05371147471105133</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08500548664053433</v>
+        <v>0.0851494929537711</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2672800375568465</v>
+        <v>0.2672757173674494</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05808350638091974</v>
+        <v>0.05805470511827238</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03289680219580826</v>
+        <v>0.03279311765027779</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -3263,40 +3263,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04596412706733063</v>
+        <v>0.04569531528262199</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02870909860688292</v>
+        <v>0.0285961976573053</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05294248099836697</v>
+        <v>0.05290887952527839</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1964920062095522</v>
+        <v>0.1965444245075704</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04489694428203733</v>
+        <v>0.04482705321801308</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0400032257414165</v>
+        <v>0.03965511448021881</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07065852166959</v>
+        <v>0.07029562576023334</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05206077834452262</v>
+        <v>0.05319919625276372</v>
       </c>
       <c r="J16" t="n">
-        <v>0.08658561991357701</v>
+        <v>0.08673346639516677</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2815830326001492</v>
+        <v>0.2815615276573725</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05950955289879908</v>
+        <v>0.05948401577925176</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03292809956788505</v>
+        <v>0.03283267138431349</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -3448,40 +3448,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04628560916110562</v>
+        <v>0.04603359811294127</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02780311888873208</v>
+        <v>0.02769727424850306</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05035810769944155</v>
+        <v>0.050326606318421</v>
       </c>
       <c r="E17" t="n">
-        <v>0.186100078627447</v>
+        <v>0.1861492207818391</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04313421100381041</v>
+        <v>0.04306868813128768</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03905919235499284</v>
+        <v>0.03873283804762001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07097387149452632</v>
+        <v>0.07063365657950445</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05268542972923933</v>
+        <v>0.05375269651821536</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09244899296385153</v>
+        <v>0.09258759904034193</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2896438579867341</v>
+        <v>0.289623697102881</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05986648454668252</v>
+        <v>0.05984254349710692</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03275387592992077</v>
+        <v>0.03266441200782242</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -3633,40 +3633,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04509278157342653</v>
+        <v>0.04485559470456597</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02822405146006307</v>
+        <v>0.02812443297514163</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04976180508694678</v>
+        <v>0.0497309707939949</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1759120131591275</v>
+        <v>0.1759594505328996</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04163341109109518</v>
+        <v>0.04157055657084713</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0390468882861707</v>
+        <v>0.03874091722534057</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06957046643983696</v>
+        <v>0.06924907823253089</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05423633536800136</v>
+        <v>0.05524437956065877</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09138691463763184</v>
+        <v>0.09152211115288235</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2988590125673463</v>
+        <v>0.2988412235521817</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06210500974245064</v>
+        <v>0.06207417544949877</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03327850363548173</v>
+        <v>0.03319430229703623</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -3818,40 +3818,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04374351771581666</v>
+        <v>0.04351950789522613</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02796202585521349</v>
+        <v>0.02786794173056547</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05043581110595888</v>
+        <v>0.05040668982928211</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1878053533866925</v>
+        <v>0.1878501553508106</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04443682811054436</v>
+        <v>0.04437746550808788</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04033856844284053</v>
+        <v>0.04004959577427875</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0699649872650417</v>
+        <v>0.06966145395814152</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05369627404465412</v>
+        <v>0.05464831578216389</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08914358805490033</v>
+        <v>0.08927127365263693</v>
       </c>
       <c r="K19" t="n">
-        <v>0.28584325136814</v>
+        <v>0.2858264506315957</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06100459444142031</v>
+        <v>0.06097547316474354</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03293728397052927</v>
+        <v>0.03285776048421963</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -4003,40 +4003,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0432302404769004</v>
+        <v>0.04301802064686727</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02839076886183322</v>
+        <v>0.0283016365332193</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0500806965903701</v>
+        <v>0.05005310801246579</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1999015299988646</v>
+        <v>0.1999439739648713</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04493542681121666</v>
+        <v>0.04487918855625789</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03956944840882877</v>
+        <v>0.03929568482808602</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06833796856812098</v>
+        <v>0.06805041069842607</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05458294028452312</v>
+        <v>0.05548487456216396</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08790145359972582</v>
+        <v>0.08802241890284471</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2731937704991092</v>
+        <v>0.2731778540118567</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06153420081725856</v>
+        <v>0.06150661223935426</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03459501559285201</v>
+        <v>0.03451967755319025</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -4188,40 +4188,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04305054333581984</v>
+        <v>0.0428479264530957</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02990060684260398</v>
+        <v>0.02981895526299873</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05387492187657507</v>
+        <v>0.05384669663918066</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2149876010564303</v>
+        <v>0.2150329630450999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04626721235458962</v>
+        <v>0.04621781818914941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0399417350456644</v>
+        <v>0.0396766194229955</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06778089151428399</v>
+        <v>0.06750670349388117</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05337493195701699</v>
+        <v>0.05422874538819782</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08403661216507732</v>
+        <v>0.08415152920304027</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2601913267877664</v>
+        <v>0.2601751980806838</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05890607044212819</v>
+        <v>0.05888086933731175</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03325436987157517</v>
+        <v>0.03318279873389649</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -4373,40 +4373,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04266427040161441</v>
+        <v>0.04247610215231836</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03013092093957399</v>
+        <v>0.03004259706745544</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05652919824005084</v>
+        <v>0.05648599634607981</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2286801053358179</v>
+        <v>0.2286839455041709</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04830835783840764</v>
+        <v>0.04828435678620151</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03985326716723261</v>
+        <v>0.03954509365690592</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0682724330634655</v>
+        <v>0.06805354346734561</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05228773229418378</v>
+        <v>0.05313928962645723</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08059649335026847</v>
+        <v>0.08071937873756385</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2487709061165241</v>
+        <v>0.2487449849801415</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05678264935134756</v>
+        <v>0.05676824872002389</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03243214182509761</v>
+        <v>0.03236493887892045</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -4558,40 +4558,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04169728982736785</v>
+        <v>0.04151767468031253</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0311696428407785</v>
+        <v>0.03108533369011988</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05912362470697988</v>
+        <v>0.05908238653546208</v>
       </c>
       <c r="E23" t="n">
-        <v>0.236216828473033</v>
+        <v>0.236220494088279</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05074952667743136</v>
+        <v>0.05072661658214369</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0394447692586843</v>
+        <v>0.03915060363519064</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06863314705898525</v>
+        <v>0.06842329058615021</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0522524289283024</v>
+        <v>0.05306619551292038</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07899034293663434</v>
+        <v>0.0791067262206957</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2393729231998622</v>
+        <v>0.239349096700763</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05551665930488938</v>
+        <v>0.05550291324771678</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03212820122761455</v>
+        <v>0.03206405296080907</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -4743,40 +4743,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04104668296484205</v>
+        <v>0.040874000611839</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03153425202682625</v>
+        <v>0.03145886785241882</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06274768303233719</v>
+        <v>0.06270648470446336</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2463142836355859</v>
+        <v>0.2463134070754184</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05221055325848094</v>
+        <v>0.05218688613395768</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03899377905249105</v>
+        <v>0.03871678603955215</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06962342098642822</v>
+        <v>0.06942005902756168</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05149878640244806</v>
+        <v>0.05227804839138061</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07601792740854629</v>
+        <v>0.0761301271099899</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2298822867351026</v>
+        <v>0.2298586196105794</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05367177905775041</v>
+        <v>0.05365950721540502</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03183315904395335</v>
+        <v>0.03177179983222638</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -4928,40 +4928,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04055193779695302</v>
+        <v>0.04044609315672399</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03283955968629665</v>
+        <v>0.03294708440018011</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06607729682869297</v>
+        <v>0.06601597414030631</v>
       </c>
       <c r="E25" t="n">
-        <v>0.254347190580835</v>
+        <v>0.2543614712068977</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05448814876044166</v>
+        <v>0.05444698695590815</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0385879316949255</v>
+        <v>0.03831155957877194</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07005739131603529</v>
+        <v>0.06982386107806966</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0510045160379831</v>
+        <v>0.05144301526178908</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07315124695066631</v>
+        <v>0.0735670651801375</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2206768344724233</v>
+        <v>0.2206491132571252</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05210664435528854</v>
+        <v>0.05214444601251319</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03169878967493935</v>
+        <v>0.03143081792705792</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -5113,40 +5113,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03979758472611439</v>
+        <v>0.03969597387149452</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03330658656075482</v>
+        <v>0.03340981028608294</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06922924941029415</v>
+        <v>0.06916957319408883</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2614302131005423</v>
+        <v>0.2614439225015625</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05425132557811334</v>
+        <v>0.0542126166811153</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03882663655974678</v>
+        <v>0.03856131932823935</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07046470837281506</v>
+        <v>0.07024051934436806</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05074655752908207</v>
+        <v>0.05116671034858168</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07188967964355557</v>
+        <v>0.07228967157920203</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2134521481421746</v>
+        <v>0.2134255357754884</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05123606378903651</v>
+        <v>0.05127235337997218</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03148242978972198</v>
+        <v>0.03122517691175581</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -5298,40 +5298,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03912219511703393</v>
+        <v>0.03902681862803634</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03390362787350752</v>
+        <v>0.03400210603694404</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07107176809400555</v>
+        <v>0.07101593795410452</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2695006149069575</v>
+        <v>0.2695145724419328</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05651095744037419</v>
+        <v>0.05647063567266789</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03824131957637331</v>
+        <v>0.03798930852820896</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07092211230232641</v>
+        <v>0.07070499509160021</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04990284004820002</v>
+        <v>0.05030605772526298</v>
       </c>
       <c r="J27" t="n">
-        <v>0.06965585371262677</v>
+        <v>0.07004123676166578</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2065544584243804</v>
+        <v>0.2065273187730396</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04995401767644263</v>
+        <v>0.04999046235110024</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03105318906411626</v>
+        <v>0.03080350427178112</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -5483,40 +5483,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03953549323602347</v>
+        <v>0.03944140911137544</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03440268154689235</v>
+        <v>0.03448855197811872</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07399940413387723</v>
+        <v>0.07393593468470991</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2771135886597269</v>
+        <v>0.2771449500346095</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05663341614229701</v>
+        <v>0.05660354816621827</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03841544413307079</v>
+        <v>0.03816978002982317</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07038612572775191</v>
+        <v>0.07017256969878893</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0490723379979645</v>
+        <v>0.04946211508579203</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06804223630497294</v>
+        <v>0.0684148393065552</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1996233648216471</v>
+        <v>0.1995949902443723</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04867957411252909</v>
+        <v>0.04871541568382358</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03062214247472609</v>
+        <v>0.03038170526729225</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -5668,40 +5668,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03935332524977895</v>
+        <v>0.03926332130400597</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03539027150950298</v>
+        <v>0.0354737951711803</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07472559597012733</v>
+        <v>0.07466727341326644</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2815777043665594</v>
+        <v>0.2816050655660744</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05905122880587085</v>
+        <v>0.05902458763792204</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03858001134769749</v>
+        <v>0.03833880077302589</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06987618337187902</v>
+        <v>0.06967025434395044</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04891534444870063</v>
+        <v>0.04929192095781479</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06705365963243828</v>
+        <v>0.06741367541553021</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1939484226988511</v>
+        <v>0.1939217815309023</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04798290357049253</v>
+        <v>0.04801674505410317</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03048757657535706</v>
+        <v>0.03025500637947968</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -5853,40 +5853,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04046011308170233</v>
+        <v>0.04037390792315784</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03709672149268403</v>
+        <v>0.0371787554338796</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07420526143452336</v>
+        <v>0.07414477878296391</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2754984778532691</v>
+        <v>0.2755248955631456</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06046596669004866</v>
+        <v>0.06044093938595509</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03982330723309944</v>
+        <v>0.03958624304710208</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07118390966811709</v>
+        <v>0.07098855765560901</v>
       </c>
       <c r="I30" t="n">
-        <v>0.05008102589700291</v>
+        <v>0.05044878822659999</v>
       </c>
       <c r="J30" t="n">
-        <v>0.06741730040203583</v>
+        <v>0.06776559705067126</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1905252188324902</v>
+        <v>0.1904981059197221</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04908966657374121</v>
+        <v>0.04912025550096668</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03154552640415342</v>
+        <v>0.03132167107309432</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -6038,40 +6038,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03993803888362465</v>
+        <v>0.03985470723036498</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0366545029334086</v>
+        <v>0.03673380240989765</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07264504075858685</v>
+        <v>0.07258657419541273</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2681498356887966</v>
+        <v>0.2681753728083439</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05900620283193215</v>
+        <v>0.05898200977130837</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03913361961788405</v>
+        <v>0.03890445757141993</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07065448949281937</v>
+        <v>0.07046564921406154</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05086590996149271</v>
+        <v>0.05122208557623166</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06923449124009597</v>
+        <v>0.06957050597098177</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2001008044192658</v>
+        <v>0.2000745952702566</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0499385093042479</v>
+        <v>0.04996807860056585</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03128162738654463</v>
+        <v>0.03106523389985417</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -6223,40 +6223,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04010585114373995</v>
+        <v>0.04002520760832735</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03575500233801217</v>
+        <v>0.03583174376687254</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0704486316938199</v>
+        <v>0.07039205114881268</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2598230654819004</v>
+        <v>0.2598477788233978</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05742860283123844</v>
+        <v>0.05740519019192511</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03871670121114884</v>
+        <v>0.03849493148876421</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07089087043640509</v>
+        <v>0.07070812177954268</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0513205053748266</v>
+        <v>0.05166519145360623</v>
       </c>
       <c r="J32" t="n">
-        <v>0.07284127336142417</v>
+        <v>0.07316709925853472</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2084667907970118</v>
+        <v>0.2084407767533303</v>
       </c>
       <c r="L32" t="n">
-        <v>0.05103305019214623</v>
+        <v>0.05106166564019586</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03093655109710977</v>
+        <v>0.03072713804547385</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -6408,40 +6408,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04030538698816556</v>
+        <v>0.04023104372895708</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03546299469768754</v>
+        <v>0.03553796798451644</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06867427068002661</v>
+        <v>0.06861882824943046</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2523733140460878</v>
+        <v>0.252396625068043</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05642212354589625</v>
+        <v>0.05640133263442269</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03886388379266547</v>
+        <v>0.03864715429124413</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07111310759863712</v>
+        <v>0.07093606983730166</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05137749238926635</v>
+        <v>0.05170888691760247</v>
       </c>
       <c r="J33" t="n">
-        <v>0.07335726598254068</v>
+        <v>0.07367479990322776</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2164831606217616</v>
+        <v>0.2164522892683615</v>
       </c>
       <c r="L33" t="n">
-        <v>0.05223685006350678</v>
+        <v>0.05226520130642527</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03147365980524586</v>
+        <v>0.0312733110219552</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -6593,40 +6593,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0403242114497936</v>
+        <v>0.04024601165787835</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03526077492328173</v>
+        <v>0.03533286535645359</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06701355605611568</v>
+        <v>0.06696040463504829</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2452186631134636</v>
+        <v>0.2452406568049398</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05606619612385625</v>
+        <v>0.0560460352400031</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03894227450204144</v>
+        <v>0.0387315016253949</v>
       </c>
       <c r="H34" t="n">
-        <v>0.07114042788726767</v>
+        <v>0.07095897993258933</v>
       </c>
       <c r="I34" t="n">
-        <v>0.05112128115696592</v>
+        <v>0.05144385529861629</v>
       </c>
       <c r="J34" t="n">
-        <v>0.07463253734498265</v>
+        <v>0.07494716932026664</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2240112461075748</v>
+        <v>0.223986197736727</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05304511822525572</v>
+        <v>0.05307749782659563</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03151390520596786</v>
+        <v>0.0313190166620541</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -6778,40 +6778,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04077005088844272</v>
+        <v>0.04069415109040733</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03481369564418175</v>
+        <v>0.03488366577049561</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06544341492166311</v>
+        <v>0.06539182677768593</v>
       </c>
       <c r="E35" t="n">
-        <v>0.239140695692805</v>
+        <v>0.2391620425110025</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05490757420687676</v>
+        <v>0.05488741332302361</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03850491629082431</v>
+        <v>0.03830093558360422</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07063484251384874</v>
+        <v>0.07045873126371978</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05112088584551782</v>
+        <v>0.05143397251241377</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07706557149583085</v>
+        <v>0.07737094958948883</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2306725315073107</v>
+        <v>0.2306482198532525</v>
       </c>
       <c r="L35" t="n">
-        <v>0.05353129740031332</v>
+        <v>0.05356213169326519</v>
       </c>
       <c r="M35" t="n">
-        <v>0.03172374371010072</v>
+        <v>0.03153518014935657</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -6963,40 +6963,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0403211916810433</v>
+        <v>0.04024515634765428</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03437776312113523</v>
+        <v>0.03444631012623593</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06403154314285138</v>
+        <v>0.06398085292059204</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2331456451050814</v>
+        <v>0.2331663820141875</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05411930059013787</v>
+        <v>0.05410029175679062</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03854357775044858</v>
+        <v>0.03834427301292889</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07083324932965061</v>
+        <v>0.07066274585477827</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05119021217890192</v>
+        <v>0.05149262543669914</v>
       </c>
       <c r="J36" t="n">
-        <v>0.07835959528465727</v>
+        <v>0.07865855239093682</v>
       </c>
       <c r="K36" t="n">
-        <v>0.236547074223734</v>
+        <v>0.2365228811631102</v>
       </c>
       <c r="L36" t="n">
-        <v>0.05469417379257906</v>
+        <v>0.05472931133300884</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0321583378215301</v>
+        <v>0.03197228166482818</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -7148,40 +7148,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04038225035785569</v>
+        <v>0.04031224728892115</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03382324281096483</v>
+        <v>0.03389212583079642</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06252506109867857</v>
+        <v>0.06247577893814865</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2275743768606816</v>
+        <v>0.2278611094310375</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05328297592566458</v>
+        <v>0.05341010149884971</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03868873611419125</v>
+        <v>0.03854592985356478</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0708761472102937</v>
+        <v>0.07072438055684362</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05069734257149833</v>
+        <v>0.05082390812013199</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07837879612642218</v>
+        <v>0.07844599907259935</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2430064134011635</v>
+        <v>0.2429072890555522</v>
       </c>
       <c r="L37" t="n">
-        <v>0.05611334000882599</v>
+        <v>0.05613854111364242</v>
       </c>
       <c r="M37" t="n">
-        <v>0.03284712001774158</v>
+        <v>0.03265839174389405</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -7333,40 +7333,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03968697230929847</v>
+        <v>0.03961940610395279</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03320443081738217</v>
+        <v>0.03327090724522228</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06213529914664973</v>
+        <v>0.0620873489364044</v>
       </c>
       <c r="E38" t="n">
-        <v>0.222687315044324</v>
+        <v>0.2229662980857513</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05206902432764814</v>
+        <v>0.05219271407453097</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03806429360349644</v>
+        <v>0.03792534697153556</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07137279817266108</v>
+        <v>0.0712245884319028</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05338493066563065</v>
+        <v>0.05350862041251348</v>
       </c>
       <c r="J38" t="n">
-        <v>0.07931727618830701</v>
+        <v>0.07938266283864155</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2477026127960585</v>
+        <v>0.247606167486815</v>
       </c>
       <c r="L38" t="n">
-        <v>0.05587180293335411</v>
+        <v>0.05589632292722956</v>
       </c>
       <c r="M38" t="n">
-        <v>0.03254184609399222</v>
+        <v>0.03235821858430274</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -7518,40 +7518,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03934025099239298</v>
+        <v>0.03927446284508271</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03263251271462057</v>
+        <v>0.03269723976278067</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06097553211469633</v>
+        <v>0.06092884375208904</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2178935271890741</v>
+        <v>0.2181651685715165</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05103833857339464</v>
+        <v>0.05116036497566369</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03831363756460768</v>
+        <v>0.03817728632381139</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07128411035855602</v>
+        <v>0.07113980087413348</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05317167841480275</v>
+        <v>0.05328946042047115</v>
       </c>
       <c r="J39" t="n">
-        <v>0.08059578595083504</v>
+        <v>0.08065998244942006</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2534286766289729</v>
+        <v>0.253333708255033</v>
       </c>
       <c r="L39" t="n">
-        <v>0.05640696972365795</v>
+        <v>0.05643243610326192</v>
       </c>
       <c r="M39" t="n">
-        <v>0.03264206260697206</v>
+        <v>0.0324643284993193</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -7703,40 +7703,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03884588761909784</v>
+        <v>0.0387812694016198</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03202220385341693</v>
+        <v>0.03208578817941533</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05977857146180365</v>
+        <v>0.05973308023669911</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2136490217577292</v>
+        <v>0.2139136979765193</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05020990581765566</v>
+        <v>0.05032880333781525</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03870217670342668</v>
+        <v>0.03856932164829183</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0712154790096767</v>
+        <v>0.07107590365992414</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05329348715570768</v>
+        <v>0.05340928300142832</v>
       </c>
       <c r="J40" t="n">
-        <v>0.08060166280766672</v>
+        <v>0.08066266240496599</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2591443824281872</v>
+        <v>0.2590518491407586</v>
       </c>
       <c r="L40" t="n">
-        <v>0.05685110773717858</v>
+        <v>0.0568769550241698</v>
       </c>
       <c r="M40" t="n">
-        <v>0.03286379151785091</v>
+        <v>0.03268906385779029</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -7888,40 +7888,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03923610411080422</v>
+        <v>0.03917310134876313</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03157748835708957</v>
+        <v>0.031639483074938</v>
       </c>
       <c r="D41" t="n">
-        <v>0.05859256869821173</v>
+        <v>0.0585482147537348</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2092367089373198</v>
+        <v>0.2094947682506401</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04938862119715328</v>
+        <v>0.04950454627930889</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03826334146488982</v>
+        <v>0.03813380778613334</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07033023527751457</v>
+        <v>0.07019414931150582</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05320457248845789</v>
+        <v>0.05331696941593919</v>
       </c>
       <c r="J41" t="n">
-        <v>0.08226346243019295</v>
+        <v>0.08232344105965606</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2639604040241124</v>
+        <v>0.2638706880909659</v>
       </c>
       <c r="L41" t="n">
-        <v>0.05799127033729159</v>
+        <v>0.05801596742001169</v>
       </c>
       <c r="M41" t="n">
-        <v>0.03299479849196589</v>
+        <v>0.03282443902340679</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -8073,40 +8073,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03938994148918123</v>
+        <v>0.03932847537987285</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03131280299718583</v>
+        <v>0.03137328564874528</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05887469813993719</v>
+        <v>0.05883142599898409</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2127091261436999</v>
+        <v>0.212960891327427</v>
       </c>
       <c r="F42" t="n">
-        <v>0.05064414023910808</v>
+        <v>0.0507572378802355</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03850040395527037</v>
+        <v>0.03837402963453235</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07014364875609805</v>
+        <v>0.07001137368886642</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05289970058628834</v>
+        <v>0.05300886439642002</v>
       </c>
       <c r="J42" t="n">
-        <v>0.08178139602810919</v>
+        <v>0.08183991176417077</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2594809014963801</v>
+        <v>0.259393373756725</v>
       </c>
       <c r="L42" t="n">
-        <v>0.05769356538346739</v>
+        <v>0.05771815182719073</v>
       </c>
       <c r="M42" t="n">
-        <v>0.03272013103591047</v>
+        <v>0.03255343494746615</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -8258,40 +8258,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04024736444445724</v>
+        <v>0.04018304162454482</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03184267598291509</v>
+        <v>0.03187147724556245</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05989318571726184</v>
+        <v>0.05981686237124636</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2185929431146262</v>
+        <v>0.2188535945415847</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05135553142649774</v>
+        <v>0.05145105561427813</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03912699532747516</v>
+        <v>0.03900506998226802</v>
       </c>
       <c r="H43" t="n">
-        <v>0.06978401933140749</v>
+        <v>0.06966017390202386</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05197043838401876</v>
+        <v>0.05207652303476985</v>
       </c>
       <c r="J43" t="n">
-        <v>0.08019999596782323</v>
+        <v>0.08025711847207381</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2537261633550015</v>
+        <v>0.2536560802825596</v>
       </c>
       <c r="L43" t="n">
-        <v>0.05663144272244895</v>
+        <v>0.05667608467955235</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0323850997627736</v>
+        <v>0.03224877378624279</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -8443,40 +8443,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04004842362986868</v>
+        <v>0.03998606554725313</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03206330705072994</v>
+        <v>0.03209143851657154</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06093744359055026</v>
+        <v>0.06086289520607002</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2237225149718005</v>
+        <v>0.223977104737667</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05150590080938916</v>
+        <v>0.05159920350443047</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03902631370429047</v>
+        <v>0.03890769268999172</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07014487236050661</v>
+        <v>0.0700234381996237</v>
       </c>
       <c r="I44" t="n">
-        <v>0.05188098702061052</v>
+        <v>0.05198460458646042</v>
       </c>
       <c r="J44" t="n">
-        <v>0.07934292397518242</v>
+        <v>0.0793987180491016</v>
       </c>
       <c r="K44" t="n">
-        <v>0.248736076682625</v>
+        <v>0.2486676234490771</v>
       </c>
       <c r="L44" t="n">
-        <v>0.05598818103348441</v>
+        <v>0.0560317848055389</v>
       </c>
       <c r="M44" t="n">
-        <v>0.03219130522030923</v>
+        <v>0.03205768075756162</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -8628,40 +8628,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03976001216984262</v>
+        <v>0.03970640254686948</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03203564444265237</v>
+        <v>0.0320677185760551</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06169551200397352</v>
+        <v>0.06161303566093792</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2297529741885702</v>
+        <v>0.2299976540062425</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05226571678356925</v>
+        <v>0.05234498571326458</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0386351264912181</v>
+        <v>0.0384445144984247</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07015529378989793</v>
+        <v>0.07002241523722945</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05121964183273431</v>
+        <v>0.05136260082732936</v>
       </c>
       <c r="J45" t="n">
-        <v>0.07789065836282626</v>
+        <v>0.07797405110967337</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2437482931979011</v>
+        <v>0.2436891851520589</v>
       </c>
       <c r="L45" t="n">
-        <v>0.05559363722505595</v>
+        <v>0.05570543849005977</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03270782663839256</v>
+        <v>0.03253233530848901</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -8813,40 +8813,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03959015163224756</v>
+        <v>0.03953862937351173</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03193349596446309</v>
+        <v>0.0319662013982693</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06378366027566648</v>
+        <v>0.06370167268133035</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2345320098833133</v>
+        <v>0.2347730444502687</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05332016155588261</v>
+        <v>0.05339811697344812</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03841589215271198</v>
+        <v>0.03822682786413356</v>
       </c>
       <c r="H46" t="n">
-        <v>0.07018182877137334</v>
+        <v>0.07005190307543083</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05105990246612412</v>
+        <v>0.05119968459417261</v>
       </c>
       <c r="J46" t="n">
-        <v>0.07666646505782813</v>
+        <v>0.07674800463252308</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2387859563763275</v>
+        <v>0.2387281618426152</v>
       </c>
       <c r="L46" t="n">
-        <v>0.05465167592947275</v>
+        <v>0.05476099272192093</v>
       </c>
       <c r="M46" t="n">
-        <v>0.03253877049969871</v>
+        <v>0.03236673095748518</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -8998,40 +8998,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03967881082341432</v>
+        <v>0.03962840861378145</v>
       </c>
       <c r="C47" t="n">
-        <v>0.03205010768541658</v>
+        <v>0.03208210213153136</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06484835947381846</v>
+        <v>0.06476771593840587</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2377590564005109</v>
+        <v>0.2379957276457435</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05331458078948268</v>
+        <v>0.05338952668380634</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0384257680639328</v>
+        <v>0.03824125214866811</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07024709354562451</v>
+        <v>0.07012043060141669</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0509759182625175</v>
+        <v>0.05111222336856813</v>
       </c>
       <c r="J47" t="n">
-        <v>0.07595087055573038</v>
+        <v>0.07603107581105921</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2354725492035136</v>
+        <v>0.235416011072708</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0544335098433324</v>
+        <v>0.05454045018377084</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03235558890380015</v>
+        <v>0.03218728935163474</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -9183,40 +9183,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03959640484255851</v>
+        <v>0.03954621711041344</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0323329102407424</v>
+        <v>0.03236336604400993</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0663786376990512</v>
+        <v>0.06629327565890701</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2432281950389641</v>
+        <v>0.2434731283300311</v>
       </c>
       <c r="F48" t="n">
-        <v>0.05364768297825155</v>
+        <v>0.05371545786439618</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03842921835395392</v>
+        <v>0.03825077308410477</v>
       </c>
       <c r="H48" t="n">
-        <v>0.07039494313558366</v>
+        <v>0.07027140410261118</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05040993082243109</v>
+        <v>0.05054247790989114</v>
       </c>
       <c r="J48" t="n">
-        <v>0.07470894332518176</v>
+        <v>0.07478872895064316</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2309090370947394</v>
+        <v>0.2308524150379604</v>
       </c>
       <c r="L48" t="n">
-        <v>0.05351728066566949</v>
+        <v>0.05361894299488643</v>
       </c>
       <c r="M48" t="n">
-        <v>0.03207768203026106</v>
+        <v>0.03191467913953348</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -9368,40 +9368,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03964385798673414</v>
+        <v>0.03959345577710126</v>
       </c>
       <c r="C49" t="n">
-        <v>0.03246868342708144</v>
+        <v>0.03249178443982984</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06831809506528766</v>
+        <v>0.0682391316035295</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2474412478243046</v>
+        <v>0.2477113196642541</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05450326942333152</v>
+        <v>0.05454233113579699</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03866521508302924</v>
+        <v>0.038419504311069</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07058325436987158</v>
+        <v>0.07051857153417605</v>
       </c>
       <c r="I49" t="n">
-        <v>0.04980872361444326</v>
+        <v>0.04994732969093365</v>
       </c>
       <c r="J49" t="n">
-        <v>0.07336797645208766</v>
+        <v>0.07345072007956829</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2265155104399777</v>
+        <v>0.226461748083036</v>
       </c>
       <c r="L49" t="n">
-        <v>0.05269004993178901</v>
+        <v>0.05278917427740032</v>
       </c>
       <c r="M49" t="n">
-        <v>0.03187477739024079</v>
+        <v>0.03171559041148364</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -9553,40 +9553,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0394601985065311</v>
+        <v>0.03941082491342135</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03318604916210955</v>
+        <v>0.03320867872561819</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06897778970058618</v>
+        <v>0.06890043773804758</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2518814424824384</v>
+        <v>0.2521460026521848</v>
       </c>
       <c r="F50" t="n">
-        <v>0.05451791006517726</v>
+        <v>0.05455576315322807</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03864841434648495</v>
+        <v>0.03840812952668416</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07062151890453164</v>
+        <v>0.07055815612670745</v>
       </c>
       <c r="I50" t="n">
-        <v>0.04957890496776522</v>
+        <v>0.04971468234881703</v>
       </c>
       <c r="J50" t="n">
-        <v>0.07263760728984645</v>
+        <v>0.07271866227186828</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2226790193910672</v>
+        <v>0.2226263542250835</v>
       </c>
       <c r="L50" t="n">
-        <v>0.05220928314068717</v>
+        <v>0.05230638454046968</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0317706728262967</v>
+        <v>0.03161473456139174</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -9738,40 +9738,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03904316445232959</v>
+        <v>0.03899356867805084</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03317352472732404</v>
+        <v>0.03319408882885426</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06985423680974175</v>
+        <v>0.06978206084554747</v>
       </c>
       <c r="E51" t="n">
-        <v>0.257162960424185</v>
+        <v>0.257425455131953</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05509566339388319</v>
+        <v>0.05513114654946473</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03895647265176105</v>
+        <v>0.03871897743997097</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07066147859922178</v>
+        <v>0.0705993830769541</v>
       </c>
       <c r="I51" t="n">
-        <v>0.04899054454547287</v>
+        <v>0.04912400959658071</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07175016632729179</v>
+        <v>0.07182879377431907</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2187363158000847</v>
+        <v>0.2186855103727748</v>
       </c>
       <c r="L51" t="n">
-        <v>0.05148646196649261</v>
+        <v>0.05158121812060241</v>
       </c>
       <c r="M51" t="n">
-        <v>0.03141186669623596</v>
+        <v>0.03125864397895204</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -9923,40 +9923,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03911171936365926</v>
+        <v>0.03906270074409474</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03446760047136937</v>
+        <v>0.03449448164984024</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07082202248452454</v>
+        <v>0.07074296019490435</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2613380264708452</v>
+        <v>0.2615752133397057</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05543412905574722</v>
+        <v>0.05548354298675983</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03911725372393267</v>
+        <v>0.03890220429616575</v>
       </c>
       <c r="H52" t="n">
-        <v>0.07053463106175516</v>
+        <v>0.07048205463915773</v>
       </c>
       <c r="I52" t="n">
-        <v>0.04840786337720104</v>
+        <v>0.04853040992611234</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07064017921839812</v>
+        <v>0.07070698685312717</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2148426798795565</v>
+        <v>0.2147924753256477</v>
       </c>
       <c r="L52" t="n">
-        <v>0.050737829052308</v>
+        <v>0.05083072724261173</v>
       </c>
       <c r="M52" t="n">
-        <v>0.03112326562043539</v>
+        <v>0.03097344258160513</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -10108,40 +10108,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03864647579996061</v>
+        <v>0.03859839984615695</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03405948701406454</v>
+        <v>0.03408585124679558</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07006643786648221</v>
+        <v>0.06998889600550857</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2577251078994995</v>
+        <v>0.2579577334824205</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05487947668548866</v>
+        <v>0.05492794034859719</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03900820858140267</v>
+        <v>0.03879651930094462</v>
       </c>
       <c r="H53" t="n">
-        <v>0.07072980848711177</v>
+        <v>0.07067863085886916</v>
       </c>
       <c r="I53" t="n">
-        <v>0.04882423276205659</v>
+        <v>0.04894481035587062</v>
       </c>
       <c r="J53" t="n">
-        <v>0.07210850277522321</v>
+        <v>0.07217402564774593</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2188297227258135</v>
+        <v>0.2187804836440953</v>
       </c>
       <c r="L53" t="n">
-        <v>0.05111055453286457</v>
+        <v>0.0512016662195086</v>
       </c>
       <c r="M53" t="n">
-        <v>0.03084731542323123</v>
+        <v>0.03070037359668617</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -10293,40 +10293,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03861912400579264</v>
+        <v>0.03857195514545697</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0340950977479532</v>
+        <v>0.03412096454233082</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06925111445942393</v>
+        <v>0.06917503565243092</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2533249291611208</v>
+        <v>0.25355240479403</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05423011480672369</v>
+        <v>0.05427842484916426</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03864917513455488</v>
+        <v>0.03844147999146396</v>
       </c>
       <c r="H54" t="n">
-        <v>0.07026220180436106</v>
+        <v>0.0702127505798156</v>
       </c>
       <c r="I54" t="n">
-        <v>0.04882966069232475</v>
+        <v>0.04894720244912895</v>
       </c>
       <c r="J54" t="n">
-        <v>0.07227372546125629</v>
+        <v>0.0723380120531654</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2242563581911959</v>
+        <v>0.2242080481487554</v>
       </c>
       <c r="L54" t="n">
-        <v>0.05178265958575851</v>
+        <v>0.0518720521839753</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03132012326288309</v>
+        <v>0.03117595392363133</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -10478,40 +10478,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03903968483311641</v>
+        <v>0.03899226942109142</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03375454646598373</v>
+        <v>0.03377918754624869</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06837190409094202</v>
+        <v>0.06829723415074516</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2493318907100887</v>
+        <v>0.2495532870827724</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05396433912996079</v>
+        <v>0.05401175454198578</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03855246347333201</v>
+        <v>0.03835010793539855</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07011096699812654</v>
+        <v>0.07006355158610153</v>
       </c>
       <c r="I55" t="n">
-        <v>0.04869450810056846</v>
+        <v>0.04881248660607948</v>
       </c>
       <c r="J55" t="n">
-        <v>0.07241229455499329</v>
+        <v>0.07247725740296454</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2288211781871184</v>
+        <v>0.2287748828241963</v>
       </c>
       <c r="L55" t="n">
-        <v>0.05240896427566051</v>
+        <v>0.05249408800748492</v>
       </c>
       <c r="M55" t="n">
-        <v>0.03167424193209964</v>
+        <v>0.0315308756469217</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -10663,40 +10663,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03940573045631411</v>
+        <v>0.03935917714268957</v>
       </c>
       <c r="C56" t="n">
-        <v>0.03363605205906772</v>
+        <v>0.0336598785581669</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06738060632941785</v>
+        <v>0.0673076605860219</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2453330303091397</v>
+        <v>0.2455504012932291</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05319577501186743</v>
+        <v>0.05324232832549197</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03823676575435613</v>
+        <v>0.03803808940802147</v>
       </c>
       <c r="H56" t="n">
-        <v>0.06981677422192735</v>
+        <v>0.0697702209083028</v>
       </c>
       <c r="I56" t="n">
-        <v>0.04919658877845205</v>
+        <v>0.0493124222202265</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0743841308184769</v>
+        <v>0.07444791252375776</v>
       </c>
       <c r="K56" t="n">
-        <v>0.232421633728059</v>
+        <v>0.2323761800990083</v>
       </c>
       <c r="L56" t="n">
-        <v>0.05262907089483167</v>
+        <v>0.05271264692244108</v>
       </c>
       <c r="M56" t="n">
-        <v>0.03173469743095356</v>
+        <v>0.03159393780550612</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -10848,40 +10848,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03914091593775471</v>
+        <v>0.03909303383860348</v>
       </c>
       <c r="C57" t="n">
-        <v>0.03336086254021376</v>
+        <v>0.03338534361346401</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06676708706909711</v>
+        <v>0.06669544392826182</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2414161436837391</v>
+        <v>0.2416296330431126</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05299576333426458</v>
+        <v>0.05304112532293416</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03825131693773455</v>
+        <v>0.03805654839908182</v>
       </c>
       <c r="H57" t="n">
-        <v>0.07017355640871296</v>
+        <v>0.0701271143726941</v>
       </c>
       <c r="I57" t="n">
-        <v>0.04923683854300172</v>
+        <v>0.04935240360937423</v>
       </c>
       <c r="J57" t="n">
-        <v>0.07466187317652005</v>
+        <v>0.0747223558280795</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2363665623100917</v>
+        <v>0.2363230004003375</v>
       </c>
       <c r="L57" t="n">
-        <v>0.05312320892147912</v>
+        <v>0.05320493250424099</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0319315998813388</v>
+        <v>0.03179479388376386</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -11033,40 +11033,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03925536306037972</v>
+        <v>0.0392355558762433</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03318516852199853</v>
+        <v>0.03335635918489193</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06592255320262715</v>
+        <v>0.06575171623945046</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2375298743623236</v>
+        <v>0.2376671098524117</v>
       </c>
       <c r="F58" t="n">
-        <v>0.05254280031847122</v>
+        <v>0.05258736648277818</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03836297867509038</v>
+        <v>0.03817339562692744</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07026492462482187</v>
+        <v>0.07021505296476407</v>
       </c>
       <c r="I58" t="n">
-        <v>0.04913136655068853</v>
+        <v>0.04924278196145593</v>
       </c>
       <c r="J58" t="n">
-        <v>0.07533485636431354</v>
+        <v>0.07538578912352149</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2398077005380126</v>
+        <v>0.2397649028722893</v>
       </c>
       <c r="L58" t="n">
-        <v>0.05384547637515797</v>
+        <v>0.05394097529867288</v>
       </c>
       <c r="M58" t="n">
-        <v>0.03226696405738848</v>
+        <v>0.03212902116786694</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -11218,40 +11218,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03902034789343096</v>
+        <v>0.0390008822124693</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03277047389895504</v>
+        <v>0.0329387129986951</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06530284080757549</v>
+        <v>0.06513494930928117</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2342708607793642</v>
+        <v>0.2344057301403128</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05183397998788956</v>
+        <v>0.0518777777700533</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03813396420678393</v>
+        <v>0.03794799743331093</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07011155920799705</v>
+        <v>0.07006254740414716</v>
       </c>
       <c r="I59" t="n">
-        <v>0.04948558462044356</v>
+        <v>0.04959473147440715</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0772714537874306</v>
+        <v>0.07732116079417198</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2426251139263738</v>
+        <v>0.2425830541514388</v>
       </c>
       <c r="L59" t="n">
-        <v>0.05442361075868186</v>
+        <v>0.05451746314903273</v>
       </c>
       <c r="M59" t="n">
-        <v>0.03221917800600516</v>
+        <v>0.03208396104361078</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -11403,40 +11403,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03886676696991142</v>
+        <v>0.03884763121574572</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03249797793169151</v>
+        <v>0.03266336552126649</v>
       </c>
       <c r="D60" t="n">
-        <v>0.06467645711079499</v>
+        <v>0.06451106952122002</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2308400698591711</v>
+        <v>0.2309729950086435</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0516928479093676</v>
+        <v>0.05173590335624043</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03803777876266164</v>
+        <v>0.03785496396840004</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06992375427094656</v>
+        <v>0.06987488975584487</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0494112509350037</v>
+        <v>0.04952640716989372</v>
       </c>
       <c r="J60" t="n">
-        <v>0.07784800675492122</v>
+        <v>0.07789208733148149</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2460536778406942</v>
+        <v>0.2460102806839255</v>
       </c>
       <c r="L60" t="n">
-        <v>0.05503921291909437</v>
+        <v>0.05513147459096471</v>
       </c>
       <c r="M60" t="n">
-        <v>0.03251403829679486</v>
+        <v>0.0323807714374266</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -11588,40 +11588,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0389215943226951</v>
+        <v>0.0389027774977655</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03246439923926265</v>
+        <v>0.03262703036901138</v>
       </c>
       <c r="D61" t="n">
-        <v>0.06396410018615216</v>
+        <v>0.06380146905640344</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2274181300108197</v>
+        <v>0.2275491757558651</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05114245008501173</v>
+        <v>0.05118478794110334</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03799856185695181</v>
+        <v>0.03781845796119702</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06984402196192281</v>
+        <v>0.06979630787013702</v>
       </c>
       <c r="I61" t="n">
-        <v>0.04942709488383971</v>
+        <v>0.04953965981868645</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0781560183598449</v>
+        <v>0.07819869223066739</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2494795131818579</v>
+        <v>0.2494378473552281</v>
       </c>
       <c r="L61" t="n">
-        <v>0.05555398748681142</v>
+        <v>0.05564403943468882</v>
       </c>
       <c r="M61" t="n">
-        <v>0.03291600303757317</v>
+        <v>0.03278562932198947</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -11773,40 +11773,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03845738170931905</v>
+        <v>0.03843887335692928</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03203630545523772</v>
+        <v>0.0321962705008922</v>
       </c>
       <c r="D62" t="n">
-        <v>0.063272785682203</v>
+        <v>0.06311282063654851</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2247922024311382</v>
+        <v>0.2249210998852813</v>
       </c>
       <c r="F62" t="n">
-        <v>0.05050797164652616</v>
+        <v>0.05054961543940316</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03761987876368172</v>
+        <v>0.03744272739080816</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07019986707036908</v>
+        <v>0.0701529351768093</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05094655349690531</v>
+        <v>0.05105727310495128</v>
       </c>
       <c r="J62" t="n">
-        <v>0.08011009825621575</v>
+        <v>0.08015207255538542</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2517568888252848</v>
+        <v>0.2517159060449932</v>
       </c>
       <c r="L62" t="n">
-        <v>0.05483264648617277</v>
+        <v>0.05492122217260956</v>
       </c>
       <c r="M62" t="n">
-        <v>0.03256379349834631</v>
+        <v>0.03243555705678858</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -11958,40 +11958,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03830958142753366</v>
+        <v>0.0382910464214106</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03162982536122125</v>
+        <v>0.03178721032549422</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06236119068879335</v>
+        <v>0.06220348054897436</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2214208090237515</v>
+        <v>0.2215479526622447</v>
       </c>
       <c r="F63" t="n">
-        <v>0.04987640077495836</v>
+        <v>0.04991802324484873</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03795026244918319</v>
+        <v>0.03777499282987921</v>
       </c>
       <c r="H63" t="n">
-        <v>0.07030685515575584</v>
+        <v>0.07026133057931325</v>
       </c>
       <c r="I63" t="n">
-        <v>0.05094915490127346</v>
+        <v>0.05105776353364364</v>
       </c>
       <c r="J63" t="n">
-        <v>0.08041070972164323</v>
+        <v>0.08045168184044156</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2554273424508221</v>
+        <v>0.2553873458586618</v>
       </c>
       <c r="L63" t="n">
-        <v>0.05533902477252345</v>
+        <v>0.05542617181885641</v>
       </c>
       <c r="M63" t="n">
-        <v>0.03271851308929125</v>
+        <v>0.03259267015298209</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -12143,40 +12143,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03857353106360183</v>
+        <v>0.03855401020780751</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03169930969773715</v>
+        <v>0.03185387647394462</v>
       </c>
       <c r="D64" t="n">
-        <v>0.06197103681025376</v>
+        <v>0.06181486996389922</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2191084857160138</v>
+        <v>0.219235851299721</v>
       </c>
       <c r="F64" t="n">
-        <v>0.05003899370948423</v>
+        <v>0.05006683493004333</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03797158467427212</v>
+        <v>0.03780933756135869</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07036596484389876</v>
+        <v>0.07032724314633954</v>
       </c>
       <c r="I64" t="n">
-        <v>0.05116416303690754</v>
+        <v>0.0512675275684086</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0807776212909174</v>
+        <v>0.08082370331115316</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2556342470053887</v>
+        <v>0.2555894450412706</v>
       </c>
       <c r="L64" t="n">
-        <v>0.05600597530195724</v>
+        <v>0.05609045900572281</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03359987301843313</v>
+        <v>0.03347762765919658</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -12328,40 +12328,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03844208030080039</v>
+        <v>0.03842286445837786</v>
       </c>
       <c r="C65" t="n">
-        <v>0.03140908197415375</v>
+        <v>0.03156123364448297</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06200227817987541</v>
+        <v>0.06184855144049515</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2207301768109514</v>
+        <v>0.2208555523074132</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05103822251567509</v>
+        <v>0.05106531370335275</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0379040367129695</v>
+        <v>0.03774463972500555</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07021752333622305</v>
+        <v>0.0701794066651882</v>
       </c>
       <c r="I65" t="n">
-        <v>0.05131732475151711</v>
+        <v>0.05141907421221346</v>
       </c>
       <c r="J65" t="n">
-        <v>0.08072701407229693</v>
+        <v>0.08077237606096652</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2530027116388783</v>
+        <v>0.2529586097054495</v>
       </c>
       <c r="L65" t="n">
-        <v>0.05624477077075059</v>
+        <v>0.05632793441664483</v>
       </c>
       <c r="M65" t="n">
-        <v>0.03347525755529122</v>
+        <v>0.03335492227979275</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -12513,40 +12513,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03826442705094345</v>
+        <v>0.03824488650197809</v>
       </c>
       <c r="C66" t="n">
-        <v>0.03145563132256949</v>
+        <v>0.03160544219797057</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06340411871348747</v>
+        <v>0.06325213666597913</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2244970247187944</v>
+        <v>0.2246214018637962</v>
       </c>
       <c r="F66" t="n">
-        <v>0.05121112632654739</v>
+        <v>0.05123873122905401</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03802156594237399</v>
+        <v>0.03786431104831944</v>
       </c>
       <c r="H66" t="n">
-        <v>0.07006279339901646</v>
+        <v>0.07002526313830522</v>
       </c>
       <c r="I66" t="n">
-        <v>0.05129176986195998</v>
+        <v>0.05139257428122572</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0796630961224417</v>
+        <v>0.07970713989947473</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2494211500078317</v>
+        <v>0.2493777265656865</v>
       </c>
       <c r="L66" t="n">
-        <v>0.05563783608581092</v>
+        <v>0.05571972029099909</v>
       </c>
       <c r="M66" t="n">
-        <v>0.03335044423732152</v>
+        <v>0.03323165010630989</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -12698,40 +12698,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03845260939875968</v>
+        <v>0.03843214304696936</v>
       </c>
       <c r="C67" t="n">
-        <v>0.03180073959896947</v>
+        <v>0.03194950248437074</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0639075580709822</v>
+        <v>0.06376551548019865</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2282331184671863</v>
+        <v>0.2283586657893628</v>
       </c>
       <c r="F67" t="n">
-        <v>0.05189747518531213</v>
+        <v>0.05191763606916527</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03816974608894127</v>
+        <v>0.03801059729367626</v>
       </c>
       <c r="H67" t="n">
-        <v>0.06997354036728243</v>
+        <v>0.06993718968275933</v>
       </c>
       <c r="I67" t="n">
-        <v>0.05073975170344195</v>
+        <v>0.05083841784714751</v>
       </c>
       <c r="J67" t="n">
-        <v>0.07870442494744424</v>
+        <v>0.07874841233039656</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2460669475749817</v>
+        <v>0.2460235711279037</v>
       </c>
       <c r="L67" t="n">
-        <v>0.055101833846214</v>
+        <v>0.05518278284956376</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0331426602469525</v>
+        <v>0.03302597149495397</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -12883,40 +12883,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03878803598988586</v>
+        <v>0.03876787510603271</v>
       </c>
       <c r="C68" t="n">
-        <v>0.03190775823910628</v>
+        <v>0.03205430078293438</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06397680354903774</v>
+        <v>0.06383688099692261</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2307166411847137</v>
+        <v>0.2308403146662606</v>
       </c>
       <c r="F68" t="n">
-        <v>0.05253174060344835</v>
+        <v>0.05255129966987305</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03819013037471861</v>
+        <v>0.03803365784332104</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07003198960540938</v>
+        <v>0.0699964823771307</v>
       </c>
       <c r="I68" t="n">
-        <v>0.05056409852112394</v>
+        <v>0.05066099112710475</v>
       </c>
       <c r="J68" t="n">
-        <v>0.07811861039152136</v>
+        <v>0.07816194124636991</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2433848980536322</v>
+        <v>0.2433421690162121</v>
       </c>
       <c r="L68" t="n">
-        <v>0.05498173935467719</v>
+        <v>0.0550614801639471</v>
       </c>
       <c r="M68" t="n">
-        <v>0.03296244328246873</v>
+        <v>0.03284749615363436</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -13068,40 +13068,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03881207328599874</v>
+        <v>0.03879161591855951</v>
       </c>
       <c r="C69" t="n">
-        <v>0.03227401724585723</v>
+        <v>0.03241810826869003</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06463342176450428</v>
+        <v>0.06449555689697907</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2342092842056078</v>
+        <v>0.2343320284102431</v>
       </c>
       <c r="F69" t="n">
-        <v>0.05281202822049366</v>
+        <v>0.0528310031700025</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03838187560260289</v>
+        <v>0.03822770413784352</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07019308197059594</v>
+        <v>0.07015839339102509</v>
       </c>
       <c r="I69" t="n">
-        <v>0.05037967688032855</v>
+        <v>0.05047484811145885</v>
       </c>
       <c r="J69" t="n">
-        <v>0.07714651151482951</v>
+        <v>0.07718950163481049</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2400938904220385</v>
+        <v>0.2400517897528157</v>
       </c>
       <c r="L69" t="n">
-        <v>0.05442608486308981</v>
+        <v>0.05450465301339987</v>
       </c>
       <c r="M69" t="n">
-        <v>0.03279820022603908</v>
+        <v>0.03268494349615816</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -13253,40 +13253,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03870334545031671</v>
+        <v>0.03868376893990859</v>
       </c>
       <c r="C70" t="n">
-        <v>0.03255690555560913</v>
+        <v>0.03269803174258116</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06553134593768417</v>
+        <v>0.0653951869249948</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2374151526281173</v>
+        <v>0.2375352413710687</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05332261592435169</v>
+        <v>0.05334248462148233</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03877200933010642</v>
+        <v>0.03862007223440154</v>
       </c>
       <c r="H70" t="n">
-        <v>0.07019932101649423</v>
+        <v>0.07016513516996063</v>
       </c>
       <c r="I70" t="n">
-        <v>0.05002032158655053</v>
+        <v>0.05011469789792106</v>
       </c>
       <c r="J70" t="n">
-        <v>0.07627183767040695</v>
+        <v>0.07631420474517081</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2369441476314322</v>
+        <v>0.2369023649301133</v>
       </c>
       <c r="L70" t="n">
-        <v>0.05382605364723538</v>
+        <v>0.05390319094197785</v>
       </c>
       <c r="M70" t="n">
-        <v>0.03261680383372355</v>
+        <v>0.03250548069244747</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -13438,40 +13438,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03887421624564021</v>
+        <v>0.03885491939966648</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03246363120559205</v>
+        <v>0.03260274130417878</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06638345425063434</v>
+        <v>0.06624924036669767</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2393508771424539</v>
+        <v>0.2394692503319346</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05386469742833526</v>
+        <v>0.05388428228693546</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03875497901828016</v>
+        <v>0.03860521245251392</v>
       </c>
       <c r="H71" t="n">
-        <v>0.06992140135423537</v>
+        <v>0.06988770387693796</v>
       </c>
       <c r="I71" t="n">
-        <v>0.04978672665009634</v>
+        <v>0.04987975472844729</v>
       </c>
       <c r="J71" t="n">
-        <v>0.07585820562373455</v>
+        <v>0.07589996745457321</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2346237259041436</v>
+        <v>0.2345822520859314</v>
       </c>
       <c r="L71" t="n">
-        <v>0.05386584947884115</v>
+        <v>0.05394217282485664</v>
       </c>
       <c r="M71" t="n">
-        <v>0.03262952647844081</v>
+        <v>0.03251979366775439</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -13623,40 +13623,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03887955462051963</v>
+        <v>0.03886564077109986</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03233976143711324</v>
+        <v>0.0324817394924171</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06659509079638615</v>
+        <v>0.0664678784588339</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2431300368489845</v>
+        <v>0.2432427674248957</v>
       </c>
       <c r="F72" t="n">
-        <v>0.05418620876282878</v>
+        <v>0.0541683195278605</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03889204868938637</v>
+        <v>0.03878925657734638</v>
       </c>
       <c r="H72" t="n">
-        <v>0.07035353387638993</v>
+        <v>0.07031519980145788</v>
       </c>
       <c r="I72" t="n">
-        <v>0.04961735494315057</v>
+        <v>0.04969146748801918</v>
       </c>
       <c r="J72" t="n">
-        <v>0.07516971346840746</v>
+        <v>0.07521543040221532</v>
       </c>
       <c r="K72" t="n">
-        <v>0.231710741860895</v>
+        <v>0.2316701361370781</v>
       </c>
       <c r="L72" t="n">
-        <v>0.05323722744117778</v>
+        <v>0.05331190789826761</v>
       </c>
       <c r="M72" t="n">
-        <v>0.03242125684085765</v>
+        <v>0.0323127856066055</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -13808,40 +13808,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03932044380825656</v>
+        <v>0.03928600229834076</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03328813935202919</v>
+        <v>0.03341246480245694</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06704725935184999</v>
+        <v>0.06692993420831569</v>
       </c>
       <c r="E73" t="n">
-        <v>0.246508246921545</v>
+        <v>0.2466171716968072</v>
       </c>
       <c r="F73" t="n">
-        <v>0.05415605420141619</v>
+        <v>0.0541392534648719</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03893850706414969</v>
+        <v>0.03883434249757509</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0703354435058433</v>
+        <v>0.07030044197137603</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04933564287458362</v>
+        <v>0.04941572638544474</v>
       </c>
       <c r="J73" t="n">
-        <v>0.07432869857014532</v>
+        <v>0.07437966080432966</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2286185426369092</v>
+        <v>0.2285857812006478</v>
       </c>
       <c r="L73" t="n">
-        <v>0.05259778588693328</v>
+        <v>0.05267002905407373</v>
       </c>
       <c r="M73" t="n">
-        <v>0.03210732758524134</v>
+        <v>0.03201128337466314</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -13993,40 +13993,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03914359879509721</v>
+        <v>0.03911018143966939</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03328423835909185</v>
+        <v>0.0334063083681753</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06755470296804113</v>
+        <v>0.0674398135477273</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2490551311796906</v>
+        <v>0.2491622876582526</v>
       </c>
       <c r="F74" t="n">
-        <v>0.05482379525600594</v>
+        <v>0.05480750084302874</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03893287613235814</v>
+        <v>0.03883041465414556</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0704934970102514</v>
+        <v>0.07045897494885901</v>
       </c>
       <c r="I74" t="n">
-        <v>0.04927430484305857</v>
+        <v>0.04935356749601547</v>
       </c>
       <c r="J74" t="n">
-        <v>0.07393217050142327</v>
+        <v>0.0739818822698283</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2260322303488689</v>
+        <v>0.2259996415229145</v>
       </c>
       <c r="L74" t="n">
-        <v>0.05225480153543082</v>
+        <v>0.05232577889365355</v>
       </c>
       <c r="M74" t="n">
-        <v>0.03198455179179165</v>
+        <v>0.03188954707883983</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -14178,40 +14178,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03923307997822625</v>
+        <v>0.03921182931686752</v>
       </c>
       <c r="C75" t="n">
-        <v>0.03343655342606976</v>
+        <v>0.0335512525085316</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06904557830950445</v>
+        <v>0.06892461300638555</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2524728413823392</v>
+        <v>0.2525687418028298</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0550694542448741</v>
+        <v>0.05506073602482949</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03898215870756747</v>
+        <v>0.03888489606519485</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07034377576302134</v>
+        <v>0.07030972021597211</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0488274811373136</v>
+        <v>0.04890621756209144</v>
       </c>
       <c r="J75" t="n">
-        <v>0.07303225686927628</v>
+        <v>0.07308075196827439</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2231079691614762</v>
+        <v>0.2230750033919325</v>
       </c>
       <c r="L75" t="n">
-        <v>0.05167643198126454</v>
+        <v>0.05174399818661023</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0317171569666479</v>
+        <v>0.03162697787806153</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -14363,40 +14363,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03924114433176751</v>
+        <v>0.03922017701256023</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03348238946795427</v>
+        <v>0.03359555922931661</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06831528934228477</v>
+        <v>0.06819593690987413</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2495320658857684</v>
+        <v>0.2496266876339859</v>
       </c>
       <c r="F76" t="n">
-        <v>0.05459916802752632</v>
+        <v>0.05459056605041565</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03872878907011283</v>
+        <v>0.03863282326297185</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06978004475716215</v>
+        <v>0.06974644328407358</v>
       </c>
       <c r="I76" t="n">
-        <v>0.04962346189256937</v>
+        <v>0.04970114849835017</v>
       </c>
       <c r="J76" t="n">
-        <v>0.07416893476610015</v>
+        <v>0.07421678326377829</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2253457255566084</v>
+        <v>0.2253131993306587</v>
       </c>
       <c r="L76" t="n">
-        <v>0.05216158276378836</v>
+        <v>0.05222824808639611</v>
       </c>
       <c r="M76" t="n">
-        <v>0.03213913697976519</v>
+        <v>0.03205016027902663</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -14548,40 +14548,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03925642415952989</v>
+        <v>0.03923573272610166</v>
       </c>
       <c r="C77" t="n">
-        <v>0.03313706536052435</v>
+        <v>0.03324874604607929</v>
       </c>
       <c r="D77" t="n">
-        <v>0.06750633210917861</v>
+        <v>0.06738855010351022</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2463768769517592</v>
+        <v>0.2464702536769738</v>
       </c>
       <c r="F77" t="n">
-        <v>0.05399562190490641</v>
+        <v>0.05398713311170509</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03854071278274313</v>
+        <v>0.03844600968359085</v>
       </c>
       <c r="H77" t="n">
-        <v>0.06961181809789488</v>
+        <v>0.06957865874945221</v>
       </c>
       <c r="I77" t="n">
-        <v>0.05010032692464816</v>
+        <v>0.05017699133824764</v>
       </c>
       <c r="J77" t="n">
-        <v>0.07602404026234616</v>
+        <v>0.07607099389974098</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2280768957332142</v>
+        <v>0.2280450627587092</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05269312269807803</v>
+        <v>0.05275891084538831</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0319679993718293</v>
+        <v>0.03188019341715309</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -14733,40 +14733,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03963053740275974</v>
+        <v>0.03960932920026487</v>
       </c>
       <c r="C78" t="n">
-        <v>0.03313637633510217</v>
+        <v>0.03324791577044556</v>
       </c>
       <c r="D78" t="n">
-        <v>0.06677782208517476</v>
+        <v>0.06666156971594361</v>
       </c>
       <c r="E78" t="n">
-        <v>0.243439268741178</v>
+        <v>0.2435314327816495</v>
       </c>
       <c r="F78" t="n">
-        <v>0.05355987533766208</v>
+        <v>0.0535514967885283</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03842402632749602</v>
+        <v>0.03833081496838276</v>
       </c>
       <c r="H78" t="n">
-        <v>0.06955374014505887</v>
+        <v>0.06952074960784463</v>
       </c>
       <c r="I78" t="n">
-        <v>0.04978848090882122</v>
+        <v>0.04986414968068564</v>
       </c>
       <c r="J78" t="n">
-        <v>0.07607696430502423</v>
+        <v>0.07612356998458085</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2311937573525042</v>
+        <v>0.2311623377932525</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05355935167834121</v>
+        <v>0.05362428543412798</v>
       </c>
       <c r="M78" t="n">
-        <v>0.03219195674992937</v>
+        <v>0.03210450564334558</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -14918,40 +14918,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03951326456921102</v>
+        <v>0.03949258673961805</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03305945548037442</v>
+        <v>0.03316904797721717</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06617086400760117</v>
+        <v>0.06605610205336017</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2406266106090706</v>
+        <v>0.2407178515321496</v>
       </c>
       <c r="F79" t="n">
-        <v>0.05336715192363264</v>
+        <v>0.05335862231892554</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03856725386533253</v>
+        <v>0.03847472057790398</v>
       </c>
       <c r="H79" t="n">
-        <v>0.06965998927854536</v>
+        <v>0.06962612933258687</v>
       </c>
       <c r="I79" t="n">
-        <v>0.04972294293074116</v>
+        <v>0.04979634922579621</v>
       </c>
       <c r="J79" t="n">
-        <v>0.07667571838657099</v>
+        <v>0.07672405281324457</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2338641849135589</v>
+        <v>0.2338342020606491</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05392933041569158</v>
+        <v>0.05399291474168997</v>
       </c>
       <c r="M79" t="n">
-        <v>0.03228222756054856</v>
+        <v>0.03219641456773772</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -15103,40 +15103,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03974322690002932</v>
+        <v>0.03972281081511474</v>
       </c>
       <c r="C80" t="n">
-        <v>0.03289950003560055</v>
+        <v>0.03300770528564782</v>
       </c>
       <c r="D80" t="n">
-        <v>0.06547846753804218</v>
+        <v>0.06536515826676627</v>
       </c>
       <c r="E80" t="n">
-        <v>0.23795227689111</v>
+        <v>0.2380423628657956</v>
       </c>
       <c r="F80" t="n">
-        <v>0.05286592067993729</v>
+        <v>0.05285749904491003</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03831129374433294</v>
+        <v>0.03821993176434019</v>
       </c>
       <c r="H80" t="n">
-        <v>0.06934757083041659</v>
+        <v>0.06931413949136897</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04977467022280839</v>
+        <v>0.04984714732425515</v>
       </c>
       <c r="J80" t="n">
-        <v>0.07780467880522009</v>
+        <v>0.07785240140370792</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2366109401122221</v>
+        <v>0.236581336789096</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05424655842228579</v>
+        <v>0.05430933788339812</v>
       </c>
       <c r="M80" t="n">
-        <v>0.03243069568574949</v>
+        <v>0.03234596893335399</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -15288,40 +15288,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03971568113546098</v>
+        <v>0.03969602427370416</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03276748452652165</v>
+        <v>0.03287433721094333</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06483891453801334</v>
+        <v>0.0647275256547247</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2352571016713373</v>
+        <v>0.2353463135823874</v>
       </c>
       <c r="F81" t="n">
-        <v>0.05281546743009213</v>
+        <v>0.05280715106550271</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03833264450313502</v>
+        <v>0.03824343259208484</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06912663051148163</v>
+        <v>0.06909437309731659</v>
       </c>
       <c r="I81" t="n">
-        <v>0.04959098606882926</v>
+        <v>0.04966432128384508</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0784802725751497</v>
+        <v>0.07852840668534909</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2391048063547106</v>
+        <v>0.2390791012277978</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05469244571682023</v>
+        <v>0.05476477288764339</v>
       </c>
       <c r="M81" t="n">
-        <v>0.03274883570895748</v>
+        <v>0.03264551117921009</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -15473,40 +15473,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03979285562990192</v>
+        <v>0.0397736903452514</v>
       </c>
       <c r="C82" t="n">
-        <v>0.03257252131266768</v>
+        <v>0.03267830372794654</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06429803660370248</v>
+        <v>0.06418777399201181</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2327372432007419</v>
+        <v>0.2328256026299748</v>
       </c>
       <c r="F82" t="n">
-        <v>0.05278716752275753</v>
+        <v>0.05277870492953522</v>
       </c>
       <c r="G82" t="n">
-        <v>0.03835844607872053</v>
+        <v>0.03827033554928826</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06886111664913168</v>
+        <v>0.06882925747464769</v>
       </c>
       <c r="I82" t="n">
-        <v>0.04934139868247379</v>
+        <v>0.04941333072486342</v>
       </c>
       <c r="J82" t="n">
-        <v>0.07861749103525142</v>
+        <v>0.07866552869677806</v>
       </c>
       <c r="K82" t="n">
-        <v>0.2417835064555897</v>
+        <v>0.2417573719765208</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05529931321078005</v>
+        <v>0.05536850735536246</v>
       </c>
       <c r="M82" t="n">
-        <v>0.03299913557099232</v>
+        <v>0.03289982455053052</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -15658,40 +15658,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03948681207745123</v>
+        <v>0.03946788051578425</v>
       </c>
       <c r="C83" t="n">
-        <v>0.03227241189570824</v>
+        <v>0.03237690428153248</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0636749554124843</v>
+        <v>0.06356603746678986</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2308632644601481</v>
+        <v>0.230950546335366</v>
       </c>
       <c r="F83" t="n">
-        <v>0.05231601841229597</v>
+        <v>0.05230765902143004</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03811095468669249</v>
+        <v>0.03802391867591182</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0690647956055174</v>
+        <v>0.0690333249575515</v>
       </c>
       <c r="I83" t="n">
-        <v>0.05035475779648424</v>
+        <v>0.05042581261884472</v>
       </c>
       <c r="J83" t="n">
-        <v>0.07971170919547747</v>
+        <v>0.07975916103186353</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2434611123595561</v>
+        <v>0.2434352965936466</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05530450064686934</v>
+        <v>0.05537285096042025</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0327695497877944</v>
+        <v>0.03267144987733824</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -15843,40 +15843,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.03926125663517763</v>
+        <v>0.03924303896904527</v>
       </c>
       <c r="C84" t="n">
-        <v>0.03205629113093571</v>
+        <v>0.03215928167013733</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06300980620532573</v>
+        <v>0.06290195762182214</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2285977036510389</v>
+        <v>0.2286839339373987</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0518239162978399</v>
+        <v>0.05181565762252656</v>
       </c>
       <c r="G84" t="n">
-        <v>0.038363975852605</v>
+        <v>0.03827798846846024</v>
       </c>
       <c r="H84" t="n">
-        <v>0.06914818808307159</v>
+        <v>0.06911612499067862</v>
       </c>
       <c r="I84" t="n">
-        <v>0.05029751877816299</v>
+        <v>0.05036820332275656</v>
       </c>
       <c r="J84" t="n">
-        <v>0.08051479723859045</v>
+        <v>0.08056094865945911</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2456841741676895</v>
+        <v>0.2456596410439646</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0557924526881138</v>
+        <v>0.05585997950391109</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03273495991992</v>
+        <v>0.03263828483831092</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -16028,40 +16028,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03909459390699688</v>
+        <v>0.03907659311784228</v>
       </c>
       <c r="C85" t="n">
-        <v>0.03177451299464969</v>
+        <v>0.03187603744548161</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06238497495730213</v>
+        <v>0.06227841028550692</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2264660082698025</v>
+        <v>0.2265514520156564</v>
       </c>
       <c r="F85" t="n">
-        <v>0.05137977248922593</v>
+        <v>0.05137161213147584</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03860137228416094</v>
+        <v>0.03851640855935124</v>
       </c>
       <c r="H85" t="n">
-        <v>0.06920439392062948</v>
+        <v>0.06917247252119534</v>
       </c>
       <c r="I85" t="n">
-        <v>0.05038636893841426</v>
+        <v>0.05045645201085616</v>
       </c>
       <c r="J85" t="n">
-        <v>0.08088210587152141</v>
+        <v>0.08092746786019099</v>
       </c>
       <c r="K85" t="n">
-        <v>0.2480674352763625</v>
+        <v>0.2480427141925902</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05605349738532537</v>
+        <v>0.05611974028941429</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03283295939693996</v>
+        <v>0.03273863526176988</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -16213,40 +16213,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03920912410447133</v>
+        <v>0.03919133508930678</v>
       </c>
       <c r="C86" t="n">
-        <v>0.03156459132109528</v>
+        <v>0.0316649213666233</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06178812808565292</v>
+        <v>0.06168281711587883</v>
       </c>
       <c r="E86" t="n">
-        <v>0.224161989143957</v>
+        <v>0.2242464276692714</v>
       </c>
       <c r="F86" t="n">
-        <v>0.05095343191610226</v>
+        <v>0.050945367562561</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03843328585642842</v>
+        <v>0.03834932170485177</v>
       </c>
       <c r="H86" t="n">
-        <v>0.06925619383859671</v>
+        <v>0.06922441079816939</v>
       </c>
       <c r="I86" t="n">
-        <v>0.05049589844607023</v>
+        <v>0.05056539419864638</v>
       </c>
       <c r="J86" t="n">
-        <v>0.08106952302906606</v>
+        <v>0.08111435134728071</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2508495440675413</v>
+        <v>0.2508251138200487</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05619312703610103</v>
+        <v>0.05625859061190654</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03281338018564616</v>
+        <v>0.03272016574618396</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -16398,40 +16398,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03923472098040034</v>
+        <v>0.03921737324313135</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0315937460000572</v>
+        <v>0.03169290941714885</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06195392722296015</v>
+        <v>0.06184960637046421</v>
       </c>
       <c r="E87" t="n">
-        <v>0.225925677604962</v>
+        <v>0.2260079621425487</v>
       </c>
       <c r="F87" t="n">
-        <v>0.05171243265444292</v>
+        <v>0.05170118006810628</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03886362006017321</v>
+        <v>0.03878414866917068</v>
       </c>
       <c r="H87" t="n">
-        <v>0.06939938851570415</v>
+        <v>0.06936891276104241</v>
       </c>
       <c r="I87" t="n">
-        <v>0.05051168792077054</v>
+        <v>0.05058037558320045</v>
       </c>
       <c r="J87" t="n">
-        <v>0.08059172662966754</v>
+        <v>0.08063603368836807</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2484981313673815</v>
+        <v>0.2484739851925341</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05571178938159067</v>
+        <v>0.05577649175302636</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03262546750979795</v>
+        <v>0.03253333695916671</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -16583,40 +16583,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03942982239651731</v>
+        <v>0.03941244232423011</v>
       </c>
       <c r="C88" t="n">
-        <v>0.03175478247449127</v>
+        <v>0.03185280608219106</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06264264694329717</v>
+        <v>0.06254045211824845</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2286211786145394</v>
+        <v>0.2287025173528435</v>
       </c>
       <c r="F88" t="n">
-        <v>0.05202852093035758</v>
+        <v>0.05201832462128243</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0390368010285295</v>
+        <v>0.03895824310179138</v>
       </c>
       <c r="H88" t="n">
-        <v>0.06927349212230843</v>
+        <v>0.06924220799219148</v>
       </c>
       <c r="I88" t="n">
-        <v>0.05017464655305661</v>
+        <v>0.05024231296782809</v>
       </c>
       <c r="J88" t="n">
-        <v>0.07985957828529133</v>
+        <v>0.07990337606745507</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2458547948259293</v>
+        <v>0.2458309261933216</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05518821807216994</v>
+        <v>0.05525217673818682</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03249030713368543</v>
+        <v>0.03239900382060336</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -16768,40 +16768,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.03953824244745799</v>
+        <v>0.03952105987599223</v>
       </c>
       <c r="C89" t="n">
-        <v>0.03182532976791157</v>
+        <v>0.03192223947097841</v>
       </c>
       <c r="D89" t="n">
-        <v>0.063035981679255</v>
+        <v>0.06293494815903639</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2305889635656173</v>
+        <v>0.2306696071010298</v>
       </c>
       <c r="F89" t="n">
-        <v>0.05217201449384268</v>
+        <v>0.05216170495096323</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03898221443482628</v>
+        <v>0.03890454921180108</v>
       </c>
       <c r="H89" t="n">
-        <v>0.06941483951020049</v>
+        <v>0.06938391088156214</v>
       </c>
       <c r="I89" t="n">
-        <v>0.05010277468746048</v>
+        <v>0.05016967216570047</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07933513987071375</v>
+        <v>0.07937843995080744</v>
       </c>
       <c r="K89" t="n">
-        <v>0.2437560826302989</v>
+        <v>0.2437324852321526</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05510656859924012</v>
+        <v>0.05516980046223408</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0323742556510041</v>
+        <v>0.03228398987557069</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -16953,40 +16953,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03979917041360846</v>
+        <v>0.03978240743152831</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0319479785769089</v>
+        <v>0.03204402593369244</v>
       </c>
       <c r="D90" t="n">
-        <v>0.06335070718264334</v>
+        <v>0.063256018986569</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2332138555561017</v>
+        <v>0.2332908746629564</v>
       </c>
       <c r="F90" t="n">
-        <v>0.05245975241981575</v>
+        <v>0.05244729344664807</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03909535169302721</v>
+        <v>0.03901266941655081</v>
       </c>
       <c r="H90" t="n">
-        <v>0.06952492123097373</v>
+        <v>0.06949887065071404</v>
       </c>
       <c r="I90" t="n">
-        <v>0.04982864381358748</v>
+        <v>0.04989501616155347</v>
       </c>
       <c r="J90" t="n">
-        <v>0.07883811693720383</v>
+        <v>0.0788813835531134</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2412530646242408</v>
+        <v>0.2412299588921843</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05463894009023468</v>
+        <v>0.05470168800964279</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03220078246882029</v>
+        <v>0.03211107786201302</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -17138,40 +17138,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03966922709891602</v>
+        <v>0.03965265037219232</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0325011368498395</v>
+        <v>0.03259589300394929</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06392254636443262</v>
+        <v>0.06382891025942578</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2358543398542592</v>
+        <v>0.2359307272030806</v>
       </c>
       <c r="F91" t="n">
-        <v>0.05273661597324427</v>
+        <v>0.05272496746257356</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03902542287453882</v>
+        <v>0.03894231523109973</v>
       </c>
       <c r="H91" t="n">
-        <v>0.06950240698552225</v>
+        <v>0.06947776590525728</v>
       </c>
       <c r="I91" t="n">
-        <v>0.04973981259338409</v>
+        <v>0.04980522346099653</v>
       </c>
       <c r="J91" t="n">
-        <v>0.07821123678062046</v>
+        <v>0.07825424666617385</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2387366742157976</v>
+        <v>0.2387136012042768</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05418483946336208</v>
+        <v>0.05424689018366565</v>
       </c>
       <c r="M91" t="n">
-        <v>0.03204729295332307</v>
+        <v>0.03195836105454863</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -17323,40 +17323,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.04000938478065955</v>
+        <v>0.03999299021576798</v>
       </c>
       <c r="C92" t="n">
-        <v>0.03261166969559946</v>
+        <v>0.03270538457329046</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06398776522362741</v>
+        <v>0.06389560118315588</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2373720310052239</v>
+        <v>0.2374473573844554</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0529431456428896</v>
+        <v>0.05293162513783066</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03903922532579213</v>
+        <v>0.03895680940498585</v>
       </c>
       <c r="H92" t="n">
-        <v>0.06961442420404941</v>
+        <v>0.06959005390488626</v>
       </c>
       <c r="I92" t="n">
-        <v>0.04974177452554904</v>
+        <v>0.04980646659241849</v>
       </c>
       <c r="J92" t="n">
-        <v>0.07788326671010488</v>
+        <v>0.07792580395955329</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2370086919995188</v>
+        <v>0.2369858725375751</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05402031286590066</v>
+        <v>0.05408146016198273</v>
       </c>
       <c r="M92" t="n">
-        <v>0.03192331951832768</v>
+        <v>0.03183558644134036</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -17508,40 +17508,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04002088842879219</v>
+        <v>0.0400048912057348</v>
       </c>
       <c r="C93" t="n">
-        <v>0.03267246540436159</v>
+        <v>0.03276559992216146</v>
       </c>
       <c r="D93" t="n">
-        <v>0.06481899470820626</v>
+        <v>0.06472761331074145</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2395750699275874</v>
+        <v>0.2396491392617435</v>
       </c>
       <c r="F93" t="n">
-        <v>0.05348068894122927</v>
+        <v>0.05346863623892576</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03905228944367356</v>
+        <v>0.0389712076281772</v>
       </c>
       <c r="H93" t="n">
-        <v>0.06983773994738886</v>
+        <v>0.06981385368282371</v>
       </c>
       <c r="I93" t="n">
-        <v>0.04949869524019063</v>
+        <v>0.04956312241250396</v>
       </c>
       <c r="J93" t="n">
-        <v>0.07727864006949368</v>
+        <v>0.07732049581749316</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2346303940225609</v>
+        <v>0.2346076034582052</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05354577353366824</v>
+        <v>0.0536060370451858</v>
       </c>
       <c r="M93" t="n">
-        <v>0.03178735877520001</v>
+        <v>0.0317007984586566</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -17693,40 +17693,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.04034539712930692</v>
+        <v>0.04032978870309804</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0327737929321144</v>
+        <v>0.03286679313827569</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06537415890635226</v>
+        <v>0.06528289296976973</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2420524386756857</v>
+        <v>0.2421259283490859</v>
       </c>
       <c r="F94" t="n">
-        <v>0.05346709754594351</v>
+        <v>0.05345539122628684</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03917606586582433</v>
+        <v>0.03909780695108254</v>
       </c>
       <c r="H94" t="n">
-        <v>0.07000075657510374</v>
+        <v>0.06997560966621164</v>
       </c>
       <c r="I94" t="n">
-        <v>0.04927103230012055</v>
+        <v>0.04933433313974549</v>
       </c>
       <c r="J94" t="n">
-        <v>0.07671931692324101</v>
+        <v>0.07676093939313139</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2323344590910736</v>
+        <v>0.2323116968028524</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05313346743572851</v>
+        <v>0.05319286616880123</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0316172519067752</v>
+        <v>0.03153118877892897</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -17878,40 +17878,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.04011351006564298</v>
+        <v>0.04009806768652142</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03294888958570242</v>
+        <v>0.03304111490545618</v>
       </c>
       <c r="D95" t="n">
-        <v>0.06572705509111647</v>
+        <v>0.06563654559126511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2438619760154115</v>
+        <v>0.2439344694062877</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05423899741211463</v>
+        <v>0.05422763010526126</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03913206108147271</v>
+        <v>0.0390546347083771</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07011440658154199</v>
+        <v>0.07008952719295725</v>
       </c>
       <c r="I95" t="n">
-        <v>0.04922923225209512</v>
+        <v>0.04929164520104477</v>
       </c>
       <c r="J95" t="n">
-        <v>0.07635870416133511</v>
+        <v>0.07640009831648041</v>
       </c>
       <c r="K95" t="n">
-        <v>0.2302668914962679</v>
+        <v>0.2302443713600489</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05285025567861321</v>
+        <v>0.05290902251027026</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0315552148699816</v>
+        <v>0.03147006730732522</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -18063,40 +18063,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.04033768419354873</v>
+        <v>0.04032134326663618</v>
       </c>
       <c r="C96" t="n">
-        <v>0.03319394027497324</v>
+        <v>0.03328561924154755</v>
       </c>
       <c r="D96" t="n">
-        <v>0.06655935417261324</v>
+        <v>0.06647022184399932</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2462927848441086</v>
+        <v>0.2463649395863199</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05422004437516646</v>
+        <v>0.05420985782332487</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03897905284167658</v>
+        <v>0.03890138038388445</v>
       </c>
       <c r="H96" t="n">
-        <v>0.07020826193020302</v>
+        <v>0.07018406886957924</v>
       </c>
       <c r="I96" t="n">
-        <v>0.04901768746173411</v>
+        <v>0.04907901899261369</v>
       </c>
       <c r="J96" t="n">
-        <v>0.07566740483797546</v>
+        <v>0.07570815104534183</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2279756668742884</v>
+        <v>0.2279533837921349</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05255687756719676</v>
+        <v>0.05261523802045587</v>
       </c>
       <c r="M96" t="n">
-        <v>0.03144546109533021</v>
+        <v>0.03136099760297702</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -18248,40 +18248,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.04043769278845184</v>
+        <v>0.04042887240176609</v>
       </c>
       <c r="C97" t="n">
-        <v>0.03331565055812047</v>
+        <v>0.03340112430528954</v>
       </c>
       <c r="D97" t="n">
-        <v>0.06690137295619041</v>
+        <v>0.0668150591721941</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2492055351706619</v>
+        <v>0.2492721080892186</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05432623166199606</v>
+        <v>0.05432161145944638</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03891575606674597</v>
+        <v>0.0388311223564041</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07004479076362707</v>
+        <v>0.07002147974167187</v>
       </c>
       <c r="I97" t="n">
-        <v>0.04890337392391282</v>
+        <v>0.04896448660309268</v>
       </c>
       <c r="J97" t="n">
-        <v>0.07500667829277635</v>
+        <v>0.07504742007889625</v>
       </c>
       <c r="K97" t="n">
-        <v>0.2258235301035597</v>
+        <v>0.2258021091644658</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05232505393036431</v>
+        <v>0.05238322648064891</v>
       </c>
       <c r="M97" t="n">
-        <v>0.03138965612252441</v>
+        <v>0.03130670248583698</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -18433,40 +18433,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.04054187467537339</v>
+        <v>0.04053397659716289</v>
       </c>
       <c r="C98" t="n">
-        <v>0.03372333904974064</v>
+        <v>0.03380793162425849</v>
       </c>
       <c r="D98" t="n">
-        <v>0.06722802603954817</v>
+        <v>0.06714260208837658</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2486001175982277</v>
+        <v>0.2486647571330558</v>
       </c>
       <c r="F98" t="n">
-        <v>0.05515061739069527</v>
+        <v>0.05514666835159002</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03982107111658249</v>
+        <v>0.03973689423039151</v>
       </c>
       <c r="H98" t="n">
-        <v>0.07055956013524003</v>
+        <v>0.07053669727726225</v>
       </c>
       <c r="I98" t="n">
-        <v>0.04909383062405002</v>
+        <v>0.04915472896393634</v>
       </c>
       <c r="J98" t="n">
-        <v>0.07477962802961446</v>
+        <v>0.07481953410899389</v>
       </c>
       <c r="K98" t="n">
-        <v>0.2239028270339578</v>
+        <v>0.2238816269292875</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05204521774482016</v>
+        <v>0.05210299842225496</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0312874054542881</v>
+        <v>0.03120509916556804</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -18618,40 +18618,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.04056657843879876</v>
+        <v>0.04055876095322305</v>
       </c>
       <c r="C99" t="n">
-        <v>0.03382214562000684</v>
+        <v>0.03390587500498879</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06669590680569722</v>
+        <v>0.06661135452749677</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2463804013167937</v>
+        <v>0.2464443812645318</v>
       </c>
       <c r="F99" t="n">
-        <v>0.05481456307044501</v>
+        <v>0.05481065432765715</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03963938350485856</v>
+        <v>0.03955606556648587</v>
       </c>
       <c r="H99" t="n">
-        <v>0.07015020681363814</v>
+        <v>0.0701275772501295</v>
       </c>
       <c r="I99" t="n">
-        <v>0.04956162421017681</v>
+        <v>0.04962190113843162</v>
       </c>
       <c r="J99" t="n">
-        <v>0.07511554449404205</v>
+        <v>0.07515504336852985</v>
       </c>
       <c r="K99" t="n">
-        <v>0.226322173392653</v>
+        <v>0.2263011896155813</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05224507899569174</v>
+        <v>0.0523022700743772</v>
       </c>
       <c r="M99" t="n">
-        <v>0.03154787448738896</v>
+        <v>0.03146640805875787</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -18803,40 +18803,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.04043601271479742</v>
+        <v>0.04042827419372247</v>
       </c>
       <c r="C100" t="n">
-        <v>0.03385582605759618</v>
+        <v>0.03393870969121468</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06637981190913592</v>
+        <v>0.06629631733964308</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2443328060956738</v>
+        <v>0.2443961397813135</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05447898472232659</v>
+        <v>0.05447511546178912</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0394686975804292</v>
+        <v>0.03938601759210215</v>
       </c>
       <c r="H100" t="n">
-        <v>0.06987762343501139</v>
+        <v>0.06985501880766089</v>
       </c>
       <c r="I100" t="n">
-        <v>0.04949272976127273</v>
+        <v>0.04955219418637495</v>
       </c>
       <c r="J100" t="n">
-        <v>0.07529540276863919</v>
+        <v>0.0753349099551797</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2288779612825499</v>
+        <v>0.2288578003986967</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05261522301501334</v>
+        <v>0.05267102182486953</v>
       </c>
       <c r="M100" t="n">
-        <v>0.03181204191264472</v>
+        <v>0.03173160202252358</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -18988,40 +18988,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0402933408600633</v>
+        <v>0.04028567972419911</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0337989153444487</v>
+        <v>0.03388097014173101</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0661428197012157</v>
+        <v>0.06606016007741779</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2423088244188625</v>
+        <v>0.2423715247676458</v>
       </c>
       <c r="F101" t="n">
-        <v>0.05414548093788431</v>
+        <v>0.05414165036995222</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03941815689199814</v>
+        <v>0.03933610209471583</v>
       </c>
       <c r="H101" t="n">
-        <v>0.06978629463115663</v>
+        <v>0.06976411765891817</v>
       </c>
       <c r="I101" t="n">
-        <v>0.04969032882401565</v>
+        <v>0.04974919860486684</v>
       </c>
       <c r="J101" t="n">
-        <v>0.07604443458801234</v>
+        <v>0.07608354670268745</v>
       </c>
       <c r="K101" t="n">
-        <v>0.2309489728029677</v>
+        <v>0.2309294167456301</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05274974294873087</v>
+        <v>0.05280458055281143</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03171609443357997</v>
+        <v>0.03163645894236004</v>
       </c>
       <c r="N101" t="n">
         <v>4.032176770629624e-07</v>
@@ -19173,40 +19173,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.04017724810323011</v>
+        <v>0.04017225778544468</v>
       </c>
       <c r="C102" t="n">
-        <v>0.03369442607453019</v>
+        <v>0.03377546883536563</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06576300661456642</v>
+        <v>0.06568116540288532</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2405566719450921</v>
+        <v>0.2406187514983429</v>
       </c>
       <c r="F102" t="n">
-        <v>0.05387287584628304</v>
+        <v>0.05386988165561178</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0392925645662286</v>
+        <v>0.03921152180539317</v>
       </c>
       <c r="H102" t="n">
-        <v>0.06971992939299172</v>
+        <v>0.06969817160744723</v>
       </c>
       <c r="I102" t="n">
-        <v>0.04972252835049437</v>
+        <v>0.04977802068426838</v>
       </c>
       <c r="J102" t="n">
-        <v>0.07643729635760697</v>
+        <v>0.07647622083633335</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2329624063392206</v>
+        <v>0.2329418462299447</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05294148293480988</v>
+        <v>0.05299398107791264</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03196538076823347</v>
+        <v>0.03188852987433781</v>
       </c>
       <c r="N102" t="n">
         <v>3.992254228346163e-07</v>
@@ -19358,40 +19358,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0402006047474533</v>
+        <v>0.0401962563215242</v>
       </c>
       <c r="C103" t="n">
-        <v>0.03371433450701302</v>
+        <v>0.03379497804242561</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0653768049426581</v>
+        <v>0.0652957660957974</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2384957450652284</v>
+        <v>0.2385576113068562</v>
       </c>
       <c r="F103" t="n">
-        <v>0.05356865433215886</v>
+        <v>0.05356588715202216</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0392552174193199</v>
+        <v>0.03917635278542376</v>
       </c>
       <c r="H103" t="n">
-        <v>0.06973847380527985</v>
+        <v>0.06971594105273811</v>
       </c>
       <c r="I103" t="n">
-        <v>0.04973966764585312</v>
+        <v>0.04979461593713915</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0766886420300666</v>
+        <v>0.07672599896191214</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2350075168471856</v>
+        <v>0.2349869606518844</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05316009995054654</v>
+        <v>0.0532097115372832</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03217044564645478</v>
+        <v>0.03209612709421181</v>
       </c>
       <c r="N103" t="n">
         <v>3.953114481009436e-07</v>
@@ -19543,40 +19543,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.04041415544589513</v>
+        <v>0.04040984923769349</v>
       </c>
       <c r="C104" t="n">
-        <v>0.03369803654522311</v>
+        <v>0.03377789713368995</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06484425325749971</v>
+        <v>0.06476400119555999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.236337820467525</v>
+        <v>0.2363990860660302</v>
       </c>
       <c r="F104" t="n">
-        <v>0.05315348520024749</v>
+        <v>0.05315074488593735</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03904419402756325</v>
+        <v>0.03896609506972436</v>
       </c>
       <c r="H104" t="n">
-        <v>0.06970968131514731</v>
+        <v>0.06968736732719333</v>
       </c>
       <c r="I104" t="n">
-        <v>0.04991423794892955</v>
+        <v>0.0499686527616594</v>
       </c>
       <c r="J104" t="n">
-        <v>0.07764954629203177</v>
+        <v>0.07768654053521862</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2368132650003337</v>
+        <v>0.2367929083797441</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05339482859627595</v>
+        <v>0.05344395851712197</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03215230353756961</v>
+        <v>0.0320787065246688</v>
       </c>
       <c r="N104" t="n">
         <v>3.914734728766626e-07</v>
@@ -19728,40 +19728,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.04044893635829303</v>
+        <v>0.04044331457337243</v>
       </c>
       <c r="C105" t="n">
-        <v>0.03352987610361453</v>
+        <v>0.03360877494715522</v>
       </c>
       <c r="D105" t="n">
-        <v>0.06431399491015224</v>
+        <v>0.06423470835730669</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2342805200887699</v>
+        <v>0.2343410027403294</v>
       </c>
       <c r="F105" t="n">
-        <v>0.05287831510841128</v>
+        <v>0.0528756011432772</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0390322465583045</v>
+        <v>0.03895489855198329</v>
       </c>
       <c r="H105" t="n">
-        <v>0.06975471958536816</v>
+        <v>0.06973262015499067</v>
       </c>
       <c r="I105" t="n">
-        <v>0.04985088700134768</v>
+        <v>0.04990516630402923</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0780821338899805</v>
+        <v>0.07811916012859542</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2385711051110942</v>
+        <v>0.2385507503725886</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05405113575563768</v>
+        <v>0.05410115025596568</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03231324430493802</v>
+        <v>0.03223996724631793</v>
       </c>
       <c r="N105" t="n">
         <v>3.877093048682331e-07</v>
@@ -19913,40 +19913,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.04039857107335586</v>
+        <v>0.04039607496392642</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0336124175683862</v>
+        <v>0.03368998896911641</v>
       </c>
       <c r="D106" t="n">
-        <v>0.06387582431613802</v>
+        <v>0.06379786889857252</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2322691266785136</v>
+        <v>0.2323290333048201</v>
       </c>
       <c r="F106" t="n">
-        <v>0.05260128204020464</v>
+        <v>0.0525999379812811</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03905796830133033</v>
+        <v>0.03898058890901777</v>
       </c>
       <c r="H106" t="n">
-        <v>0.06988127159494673</v>
+        <v>0.06985938263533473</v>
       </c>
       <c r="I106" t="n">
-        <v>0.04973133222160459</v>
+        <v>0.04978509457854632</v>
       </c>
       <c r="J106" t="n">
-        <v>0.07809865584507225</v>
+        <v>0.07813571346967851</v>
       </c>
       <c r="K106" t="n">
-        <v>0.2409893809744619</v>
+        <v>0.2409682600485205</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05418631152789739</v>
+        <v>0.05423488965756259</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03232941732165538</v>
+        <v>0.03225472604718991</v>
       </c>
       <c r="N106" t="n">
         <v>3.840168352980595e-07</v>
@@ -20098,40 +20098,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.04056236693341164</v>
+        <v>0.04055989437218437</v>
       </c>
       <c r="C107" t="n">
-        <v>0.03345299261693217</v>
+        <v>0.03352983221199512</v>
       </c>
       <c r="D107" t="n">
-        <v>0.06352656462723477</v>
+        <v>0.06344934463813685</v>
       </c>
       <c r="E107" t="n">
-        <v>0.2301817560738467</v>
+        <v>0.2302410975433012</v>
       </c>
       <c r="F107" t="n">
-        <v>0.05225929331156972</v>
+        <v>0.05225796193244735</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03881959166221922</v>
+        <v>0.03874294226417377</v>
       </c>
       <c r="H107" t="n">
-        <v>0.06964311051245543</v>
+        <v>0.06962142805246242</v>
       </c>
       <c r="I107" t="n">
-        <v>0.04979491055604859</v>
+        <v>0.04984816572094369</v>
       </c>
       <c r="J107" t="n">
-        <v>0.07869972189392103</v>
+        <v>0.07873642991829516</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2433422485015328</v>
+        <v>0.2433213268296097</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05436496449211881</v>
+        <v>0.05441308433754188</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03229925750888315</v>
+        <v>0.03222527086908245</v>
       </c>
       <c r="N107" t="n">
         <v>3.803940349650589e-07</v>
@@ -20283,40 +20283,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.04050434617782615</v>
+        <v>0.04050189672464773</v>
       </c>
       <c r="C108" t="n">
-        <v>0.03334968186313699</v>
+        <v>0.03342580333114327</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06300408097741472</v>
+        <v>0.06292758267045792</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2281778687383262</v>
+        <v>0.2282366556146083</v>
       </c>
       <c r="F108" t="n">
-        <v>0.05192520425142167</v>
+        <v>0.05192388531509483</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03885115370186801</v>
+        <v>0.03877522065333699</v>
       </c>
       <c r="H108" t="n">
-        <v>0.06972085843159252</v>
+        <v>0.0696995670308878</v>
       </c>
       <c r="I108" t="n">
-        <v>0.04986257625571688</v>
+        <v>0.0499155221282658</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0789319328993028</v>
+        <v>0.07896754418012751</v>
       </c>
       <c r="K108" t="n">
-        <v>0.2453611596238921</v>
+        <v>0.2453408103205637</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05465464877008246</v>
+        <v>0.05470213047784875</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03244319576764638</v>
+        <v>0.03237008901124431</v>
       </c>
       <c r="N108" t="n">
         <v>3.768389505261331e-07</v>
@@ -20468,40 +20468,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.04040819816207409</v>
+        <v>0.04040558471416721</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03329177951161379</v>
+        <v>0.03336738282606309</v>
       </c>
       <c r="D109" t="n">
-        <v>0.06251106048489166</v>
+        <v>0.06243527049559186</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2262596258886656</v>
+        <v>0.2263178684420192</v>
       </c>
       <c r="F109" t="n">
-        <v>0.05188048777391734</v>
+        <v>0.0518791810499639</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03892543982461524</v>
+        <v>0.03885020985986692</v>
       </c>
       <c r="H109" t="n">
-        <v>0.06953134158734853</v>
+        <v>0.06951006065439243</v>
       </c>
       <c r="I109" t="n">
-        <v>0.04971225938545146</v>
+        <v>0.04976415499388827</v>
       </c>
       <c r="J109" t="n">
-        <v>0.07906165272952233</v>
+        <v>0.07909656092656435</v>
       </c>
       <c r="K109" t="n">
-        <v>0.2475198379363618</v>
+        <v>0.2475004237519106</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05496902317530934</v>
+        <v>0.05501643858733433</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03256878781565784</v>
+        <v>0.0324963579736669</v>
       </c>
       <c r="N109" t="n">
         <v>3.733497009842245e-07</v>
@@ -20653,40 +20653,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.04017916182142673</v>
+        <v>0.04017657235010614</v>
       </c>
       <c r="C110" t="n">
-        <v>0.03322606140117403</v>
+        <v>0.03330097110723389</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06249689032238733</v>
+        <v>0.06242179565409028</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2275092855667123</v>
+        <v>0.227566993784714</v>
       </c>
       <c r="F110" t="n">
-        <v>0.05236650859177336</v>
+        <v>0.05236521385611307</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03903461549772691</v>
+        <v>0.03896007571614141</v>
       </c>
       <c r="H110" t="n">
-        <v>0.07000469249195738</v>
+        <v>0.06998360679691831</v>
       </c>
       <c r="I110" t="n">
-        <v>0.05028087440527704</v>
+        <v>0.05033229390721444</v>
       </c>
       <c r="J110" t="n">
-        <v>0.07882609647001421</v>
+        <v>0.07886068440836777</v>
       </c>
       <c r="K110" t="n">
-        <v>0.2454781819469828</v>
+        <v>0.2454589458743156</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05457588251494633</v>
+        <v>0.05462286292319129</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03235340956613593</v>
+        <v>0.03228164421810821</v>
       </c>
       <c r="N110" t="n">
         <v>3.699244743696903e-07</v>
@@ -20838,40 +20838,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.04007672132709934</v>
+        <v>0.04007433867718942</v>
       </c>
       <c r="C111" t="n">
-        <v>0.03329826561414635</v>
+        <v>0.03337249432287839</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06294906077773359</v>
+        <v>0.06287464878823924</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2299706200938031</v>
+        <v>0.2300270705685919</v>
       </c>
       <c r="F111" t="n">
-        <v>0.05278834187727154</v>
+        <v>0.05278559266583702</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03905144874278561</v>
+        <v>0.03897685347252897</v>
       </c>
       <c r="H111" t="n">
-        <v>0.07017655435832489</v>
+        <v>0.07015822628209475</v>
       </c>
       <c r="I111" t="n">
-        <v>0.04996875063002762</v>
+        <v>0.05001915283966049</v>
       </c>
       <c r="J111" t="n">
-        <v>0.07817547666744255</v>
+        <v>0.07821048329304212</v>
       </c>
       <c r="K111" t="n">
-        <v>0.243385122367401</v>
+        <v>0.243365694606597</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05414975137964594</v>
+        <v>0.05419703781631969</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0321762207873375</v>
+        <v>0.03210474129003997</v>
       </c>
       <c r="N111" t="n">
         <v>3.665615246026931e-07</v>
@@ -21023,40 +21023,40 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.04000446082258949</v>
+        <v>0.0400024628971626</v>
       </c>
       <c r="C112" t="n">
-        <v>0.03323567110587534</v>
+        <v>0.03330904945791743</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06349733939903493</v>
+        <v>0.06342250801031873</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2321242433538556</v>
+        <v>0.2321807301545613</v>
       </c>
       <c r="F112" t="n">
-        <v>0.05301131861080249</v>
+        <v>0.05300913905579134</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03893920331088937</v>
+        <v>0.0388661882180158</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07045175455086546</v>
+        <v>0.07043268344451788</v>
       </c>
       <c r="I112" t="n">
-        <v>0.04997301892525779</v>
+        <v>0.05002314869051427</v>
       </c>
       <c r="J112" t="n">
-        <v>0.07770967273799878</v>
+        <v>0.07774418235900868</v>
       </c>
       <c r="K112" t="n">
-        <v>0.2413455773468677</v>
+        <v>0.2413263246109358</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05375963249796439</v>
+        <v>0.05380649293070414</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03203364651722548</v>
+        <v>0.0319626293497788</v>
       </c>
       <c r="N112" t="n">
         <v>3.632591685251914e-07</v>
@@ -21208,40 +21208,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03976626335298539</v>
+        <v>0.03976428326617839</v>
       </c>
       <c r="C113" t="n">
-        <v>0.03314503307825015</v>
+        <v>0.03321775626643472</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06380307712690124</v>
+        <v>0.06372891387558431</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2335442185785425</v>
+        <v>0.2336002010328133</v>
       </c>
       <c r="F113" t="n">
-        <v>0.05321303285936056</v>
+        <v>0.053210872764662</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03908061329408681</v>
+        <v>0.03900825012168534</v>
       </c>
       <c r="H113" t="n">
-        <v>0.070954970665914</v>
+        <v>0.07093606983730166</v>
       </c>
       <c r="I113" t="n">
-        <v>0.05040094957762949</v>
+        <v>0.05045063175569617</v>
       </c>
       <c r="J113" t="n">
-        <v>0.07750815795764486</v>
+        <v>0.07754235945703859</v>
       </c>
       <c r="K113" t="n">
-        <v>0.2394180560875789</v>
+        <v>0.239398975251075</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05337666003277584</v>
+        <v>0.0534231020687947</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03184051588821654</v>
+        <v>0.03177013280262207</v>
       </c>
       <c r="N113" t="n">
         <v>3.600157830919307e-07</v>
@@ -21393,40 +21393,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0397085556903381</v>
+        <v>0.03970641471152184</v>
       </c>
       <c r="C114" t="n">
-        <v>0.03325742968713341</v>
+        <v>0.03332915247747824</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0642757523622579</v>
+        <v>0.06420242383780088</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2361522828275836</v>
+        <v>0.2362070562022996</v>
       </c>
       <c r="F114" t="n">
-        <v>0.05369003943504565</v>
+        <v>0.05368682796682125</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03897009641362854</v>
+        <v>0.03889783837857965</v>
       </c>
       <c r="H114" t="n">
-        <v>0.070583968029477</v>
+        <v>0.07056666178404554</v>
       </c>
       <c r="I114" t="n">
-        <v>0.05015938695212575</v>
+        <v>0.05020969995430794</v>
       </c>
       <c r="J114" t="n">
-        <v>0.07707898409841508</v>
+        <v>0.07711306134457395</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2375093065672919</v>
+        <v>0.2374902161728469</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05298833362801528</v>
+        <v>0.0530345430874663</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03166115156470761</v>
+        <v>0.03159139133827769</v>
       </c>
       <c r="N114" t="n">
         <v>3.568298027105862e-07</v>
@@ -21578,40 +21578,40 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.03964089575160659</v>
+        <v>0.03963895040316462</v>
       </c>
       <c r="C115" t="n">
-        <v>0.03319047401774936</v>
+        <v>0.03326103711123538</v>
       </c>
       <c r="D115" t="n">
-        <v>0.06446707886831654</v>
+        <v>0.06439439357653018</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2376191835407959</v>
+        <v>0.2376727690478793</v>
       </c>
       <c r="F115" t="n">
-        <v>0.05474458105506504</v>
+        <v>0.05474051350832273</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03918533051646879</v>
+        <v>0.03911406002354933</v>
       </c>
       <c r="H115" t="n">
-        <v>0.07076611712341679</v>
+        <v>0.07075002378630595</v>
       </c>
       <c r="I115" t="n">
-        <v>0.04995177304362497</v>
+        <v>0.05000164470368276</v>
       </c>
       <c r="J115" t="n">
-        <v>0.07655087599040342</v>
+        <v>0.07658465431335036</v>
       </c>
       <c r="K115" t="n">
-        <v>0.2357106198693645</v>
+        <v>0.2356936422829619</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05263193264708514</v>
+        <v>0.05267720621082555</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03156504696955388</v>
+        <v>0.03149501442564295</v>
       </c>
       <c r="N115" t="n">
         <v>3.536997167218969e-07</v>
@@ -21763,40 +21763,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.03944748659520364</v>
+        <v>0.03944555816283508</v>
       </c>
       <c r="C116" t="n">
-        <v>0.03303404647346696</v>
+        <v>0.03310399597483571</v>
       </c>
       <c r="D116" t="n">
-        <v>0.06499605986204696</v>
+        <v>0.06492400661627615</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2387339666188357</v>
+        <v>0.2387870861649879</v>
       </c>
       <c r="F116" t="n">
-        <v>0.05509005340881101</v>
+        <v>0.05508602123204038</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03909616128005834</v>
+        <v>0.03902551053055557</v>
       </c>
       <c r="H116" t="n">
-        <v>0.07098436830253246</v>
+        <v>0.07096841490748346</v>
       </c>
       <c r="I116" t="n">
-        <v>0.05070462289066752</v>
+        <v>0.05075406088411612</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0763108738165342</v>
+        <v>0.07634435841493378</v>
       </c>
       <c r="K116" t="n">
-        <v>0.2339504024726009</v>
+        <v>0.2339335725173844</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05239024809282421</v>
+        <v>0.05243512797340166</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03140715080253466</v>
+        <v>0.03133772723726643</v>
       </c>
       <c r="N116" t="n">
         <v>3.506240670112717e-07</v>
@@ -21948,40 +21948,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.03936777553845202</v>
+        <v>0.03936534232833181</v>
       </c>
       <c r="C117" t="n">
-        <v>0.03295852628110251</v>
+        <v>0.03302787276952842</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0658006060778808</v>
+        <v>0.06572934778150329</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2406220605952744</v>
+        <v>0.2406747222143046</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0555517512508438</v>
+        <v>0.05554775383421775</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03915104603703068</v>
+        <v>0.03908100434571327</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07108658126330879</v>
+        <v>0.07107198200258755</v>
       </c>
       <c r="I117" t="n">
-        <v>0.05043331996226439</v>
+        <v>0.05048198416466854</v>
       </c>
       <c r="J117" t="n">
-        <v>0.07573418639362804</v>
+        <v>0.07576755613241946</v>
       </c>
       <c r="K117" t="n">
-        <v>0.2320670676133476</v>
+        <v>0.2320498613417833</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0520941596700289</v>
+        <v>0.052138826455807</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03132966590634644</v>
+        <v>0.0312604932186434</v>
       </c>
       <c r="N117" t="n">
         <v>3.476014457439331e-07</v>
@@ -22133,40 +22133,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.03913968511456465</v>
+        <v>0.03913727270111214</v>
       </c>
       <c r="C118" t="n">
-        <v>0.03287447506314061</v>
+        <v>0.03294340116178385</v>
       </c>
       <c r="D118" t="n">
-        <v>0.06608479254192043</v>
+        <v>0.0660122478230984</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2427621996179082</v>
+        <v>0.2428163066053431</v>
       </c>
       <c r="F118" t="n">
-        <v>0.05604432775255944</v>
+        <v>0.05604053681713406</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03937937562259652</v>
+        <v>0.03930993257821346</v>
       </c>
       <c r="H118" t="n">
-        <v>0.07102679381464083</v>
+        <v>0.07101231933392575</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05023678699612653</v>
+        <v>0.05028469063468358</v>
       </c>
       <c r="J118" t="n">
-        <v>0.07528711597177959</v>
+        <v>0.07532054512962157</v>
       </c>
       <c r="K118" t="n">
-        <v>0.2303754904307312</v>
+        <v>0.2303582589060705</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05174196067524831</v>
+        <v>0.0517862456936266</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03131416050510424</v>
+        <v>0.0312454067217076</v>
       </c>
       <c r="N118" t="n">
         <v>3.446304932162072e-07</v>
@@ -22318,40 +22318,40 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.03894143058214723</v>
+        <v>0.03893886775792861</v>
       </c>
       <c r="C119" t="n">
-        <v>0.03312399046082655</v>
+        <v>0.03319250329493767</v>
       </c>
       <c r="D119" t="n">
-        <v>0.06661378136512421</v>
+        <v>0.06654185143205492</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2445923554712367</v>
+        <v>0.2446465164897236</v>
       </c>
       <c r="F119" t="n">
-        <v>0.05596285476748521</v>
+        <v>0.05595858339378751</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03934789450322045</v>
+        <v>0.03928143192848422</v>
       </c>
       <c r="H119" t="n">
-        <v>0.07112640224927122</v>
+        <v>0.07111085444901159</v>
       </c>
       <c r="I119" t="n">
-        <v>0.05017275143782982</v>
+        <v>0.05021905312871289</v>
       </c>
       <c r="J119" t="n">
-        <v>0.07502531216053257</v>
+        <v>0.07505845802042674</v>
       </c>
       <c r="K119" t="n">
-        <v>0.2287563229144847</v>
+        <v>0.2287392374196939</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05153685734192757</v>
+        <v>0.05158076706353993</v>
       </c>
       <c r="M119" t="n">
-        <v>0.031183590817435</v>
+        <v>0.03111541969321969</v>
       </c>
       <c r="N119" t="n">
         <v>3.417098958160699e-07</v>
@@ -22503,40 +22503,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.03902232250332443</v>
+        <v>0.0390092772255371</v>
       </c>
       <c r="C120" t="n">
-        <v>0.03328951588296455</v>
+        <v>0.03336660161534423</v>
       </c>
       <c r="D120" t="n">
-        <v>0.06691532886213496</v>
+        <v>0.0668363795186428</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2464446111905781</v>
+        <v>0.2464962840441513</v>
       </c>
       <c r="F120" t="n">
-        <v>0.05639931019281768</v>
+        <v>0.05630511312204162</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03930881035706958</v>
+        <v>0.03934743793285544</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0713873178553089</v>
+        <v>0.07137935515328286</v>
       </c>
       <c r="I120" t="n">
-        <v>0.04998933506186087</v>
+        <v>0.05002796263764674</v>
       </c>
       <c r="J120" t="n">
-        <v>0.07450801937274577</v>
+        <v>0.07454156437277033</v>
       </c>
       <c r="K120" t="n">
-        <v>0.2269271814288103</v>
+        <v>0.226910239509606</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05118780642637491</v>
+        <v>0.05123117773953798</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03105758744698662</v>
+        <v>0.03098575370956027</v>
       </c>
       <c r="N120" t="n">
         <v>3.38838384086523e-07</v>
@@ -22688,40 +22688,40 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.03907229692949739</v>
+        <v>0.0390590243476274</v>
       </c>
       <c r="C121" t="n">
-        <v>0.03331233241265297</v>
+        <v>0.03338894377129493</v>
       </c>
       <c r="D121" t="n">
-        <v>0.06687970000604826</v>
+        <v>0.0668007365442901</v>
       </c>
       <c r="E121" t="n">
-        <v>0.244987500252011</v>
+        <v>0.245039078513202</v>
       </c>
       <c r="F121" t="n">
-        <v>0.05614638145736309</v>
+        <v>0.05605246534008051</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03923896023601674</v>
+        <v>0.03926214525244787</v>
       </c>
       <c r="H121" t="n">
-        <v>0.07133004710926527</v>
+        <v>0.07133038312399616</v>
       </c>
       <c r="I121" t="n">
-        <v>0.05019690463229908</v>
+        <v>0.05024243462833411</v>
       </c>
       <c r="J121" t="n">
-        <v>0.07474966902549007</v>
+        <v>0.07478293448384778</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2274161139224344</v>
+        <v>0.2274014972816408</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05170376269295646</v>
+        <v>0.05174492449748997</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0315165016834338</v>
+        <v>0.0314456025752169</v>
       </c>
       <c r="N121" t="n">
         <v>3.36014730885802e-07</v>
@@ -22873,40 +22873,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.03891633749719455</v>
+        <v>0.03890317460608382</v>
       </c>
       <c r="C122" t="n">
-        <v>0.03321413974425003</v>
+        <v>0.03329011795116767</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06650992273716155</v>
+        <v>0.06643161186599644</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2434385070548931</v>
+        <v>0.2434896590494627</v>
       </c>
       <c r="F122" t="n">
-        <v>0.05590913006452649</v>
+        <v>0.05581599011350245</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03911628014697784</v>
+        <v>0.03913927355170292</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0709886380923072</v>
+        <v>0.07098897133005683</v>
       </c>
       <c r="I122" t="n">
-        <v>0.05053550473272583</v>
+        <v>0.05058065844780189</v>
       </c>
       <c r="J122" t="n">
-        <v>0.07513478217331329</v>
+        <v>0.07516777271052753</v>
       </c>
       <c r="K122" t="n">
-        <v>0.2295823148060365</v>
+        <v>0.2295678189639272</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05182813396357478</v>
+        <v>0.05186895558790554</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03147063983813976</v>
+        <v>0.03140032667296597</v>
       </c>
       <c r="N122" t="n">
         <v>3.332377496388119e-07</v>
@@ -23058,40 +23058,40 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.03900899671179289</v>
+        <v>0.03899594171323225</v>
       </c>
       <c r="C123" t="n">
-        <v>0.03324480171440224</v>
+        <v>0.03332114866801007</v>
       </c>
       <c r="D123" t="n">
-        <v>0.06619892314439721</v>
+        <v>0.0661217499250577</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2416701672791499</v>
+        <v>0.2417210652482218</v>
       </c>
       <c r="F123" t="n">
-        <v>0.05568882303734622</v>
+        <v>0.05559677703483636</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03903494145576784</v>
+        <v>0.03905708537737704</v>
       </c>
       <c r="H123" t="n">
-        <v>0.07065679201999167</v>
+        <v>0.07065943607033306</v>
       </c>
       <c r="I123" t="n">
-        <v>0.05054978069254949</v>
+        <v>0.0505977041049873</v>
       </c>
       <c r="J123" t="n">
-        <v>0.07518439772334046</v>
+        <v>0.07521331702394948</v>
       </c>
       <c r="K123" t="n">
-        <v>0.2316601231929155</v>
+        <v>0.2316450851565988</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05208498242202282</v>
+        <v>0.0521177025449976</v>
       </c>
       <c r="M123" t="n">
-        <v>0.03172463802124561</v>
+        <v>0.03166035454732041</v>
       </c>
       <c r="N123" t="n">
         <v>3.305062926745594e-07</v>
@@ -23243,40 +23243,40 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.03900508169009836</v>
+        <v>0.03899049373348918</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0333256131900042</v>
+        <v>0.03340150334629695</v>
       </c>
       <c r="D124" t="n">
-        <v>0.06591855035705253</v>
+        <v>0.06584266020075978</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2399745087751476</v>
+        <v>0.2400243373010936</v>
       </c>
       <c r="F124" t="n">
-        <v>0.05542669527217439</v>
+        <v>0.05533441415339941</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03908179139451522</v>
+        <v>0.03910555829011447</v>
       </c>
       <c r="H124" t="n">
-        <v>0.07065553851441823</v>
+        <v>0.07065865279728985</v>
       </c>
       <c r="I124" t="n">
-        <v>0.05037172244265335</v>
+        <v>0.0504197479627263</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07516206973928372</v>
+        <v>0.07519124565250208</v>
       </c>
       <c r="K124" t="n">
-        <v>0.23358318077445</v>
+        <v>0.2335700680044643</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05230126654606197</v>
+        <v>0.05233208155552856</v>
       </c>
       <c r="M124" t="n">
-        <v>0.03194172422762916</v>
+        <v>0.03187697992582434</v>
       </c>
       <c r="N124" t="n">
         <v>3.278192496446849e-07</v>
@@ -23428,40 +23428,40 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.03891457053090111</v>
+        <v>0.03890026280687629</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0333269165358919</v>
+        <v>0.03340186949924917</v>
       </c>
       <c r="D125" t="n">
-        <v>0.06558741986861608</v>
+        <v>0.06551230431748579</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2383608290935862</v>
+        <v>0.238410255776581</v>
       </c>
       <c r="F125" t="n">
-        <v>0.05507254341256127</v>
+        <v>0.05498116908413007</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03894806361214102</v>
+        <v>0.03897147625145435</v>
       </c>
       <c r="H125" t="n">
-        <v>0.07068568466686741</v>
+        <v>0.07068861124678158</v>
       </c>
       <c r="I125" t="n">
-        <v>0.05051943541720998</v>
+        <v>0.0505672362224747</v>
       </c>
       <c r="J125" t="n">
-        <v>0.07656697217993133</v>
+        <v>0.07659575021575397</v>
       </c>
       <c r="K125" t="n">
-        <v>0.234669598882957</v>
+        <v>0.2346565918611162</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05230529951594368</v>
+        <v>0.05233602860504243</v>
       </c>
       <c r="M125" t="n">
-        <v>0.03186021223557538</v>
+        <v>0.03179599006523672</v>
       </c>
       <c r="N125" t="n">
         <v>3.251755460185181e-07</v>
@@ -23613,40 +23613,40 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.03887792584826918</v>
+        <v>0.0388645390213907</v>
       </c>
       <c r="C126" t="n">
-        <v>0.03332255398076651</v>
+        <v>0.03339722989455858</v>
       </c>
       <c r="D126" t="n">
-        <v>0.06529110300195561</v>
+        <v>0.06521658837523436</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2367026471240499</v>
+        <v>0.2367513558194391</v>
       </c>
       <c r="F126" t="n">
-        <v>0.05479405657144009</v>
+        <v>0.05470389709884881</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03893002157214572</v>
+        <v>0.03894792443700732</v>
       </c>
       <c r="H126" t="n">
-        <v>0.07064567246628092</v>
+        <v>0.07064905949476825</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0504880143545493</v>
+        <v>0.05053849720771759</v>
       </c>
       <c r="J126" t="n">
-        <v>0.07697651257031109</v>
+        <v>0.07700328622406806</v>
       </c>
       <c r="K126" t="n">
-        <v>0.23618862522933</v>
+        <v>0.2361734642446725</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05256990786476079</v>
+        <v>0.05260345557549243</v>
       </c>
       <c r="M126" t="n">
-        <v>0.03204854740831838</v>
+        <v>0.03198629059897986</v>
       </c>
       <c r="N126" t="n">
         <v>3.225741416503699e-07</v>
@@ -23798,40 +23798,40 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.03881914183117788</v>
+        <v>0.03880570124194245</v>
       </c>
       <c r="C127" t="n">
-        <v>0.03341842506375479</v>
+        <v>0.03349250831156438</v>
       </c>
       <c r="D127" t="n">
-        <v>0.06502061050356447</v>
+        <v>0.06494700727679902</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2350725455803983</v>
+        <v>0.2351207076918252</v>
       </c>
       <c r="F127" t="n">
-        <v>0.05456799226078071</v>
+        <v>0.05447870834657392</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03884858312188406</v>
+        <v>0.0388663439005166</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0705539730861801</v>
+        <v>0.07055749324050366</v>
       </c>
       <c r="I127" t="n">
-        <v>0.05048861342081237</v>
+        <v>0.05053789558134229</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07715906265330671</v>
+        <v>0.07718610383879229</v>
       </c>
       <c r="K127" t="n">
-        <v>0.2377229017720137</v>
+        <v>0.2377080211196459</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05283463627045409</v>
+        <v>0.05286775772249856</v>
       </c>
       <c r="M127" t="n">
-        <v>0.03233005734971421</v>
+        <v>0.03226829464203711</v>
       </c>
       <c r="N127" t="n">
         <v>3.200140294150496e-07</v>
@@ -23983,40 +23983,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.03869111732094555</v>
+        <v>0.03867778256312143</v>
       </c>
       <c r="C128" t="n">
-        <v>0.03346087605866468</v>
+        <v>0.03353437597381435</v>
       </c>
       <c r="D128" t="n">
-        <v>0.06473628055822471</v>
+        <v>0.06466325688442591</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2335435198077509</v>
+        <v>0.233591302689954</v>
       </c>
       <c r="F128" t="n">
-        <v>0.05423261881785149</v>
+        <v>0.05414403792659121</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0387130244230852</v>
+        <v>0.03873048660595012</v>
       </c>
       <c r="H128" t="n">
-        <v>0.07054690128008913</v>
+        <v>0.07055055246377907</v>
       </c>
       <c r="I128" t="n">
-        <v>0.05056159173829204</v>
+        <v>0.05061048585031385</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07758955837663294</v>
+        <v>0.07761638663939814</v>
       </c>
       <c r="K128" t="n">
-        <v>0.2395471770238313</v>
+        <v>0.2395325722890715</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05290374670183021</v>
+        <v>0.05293644860792272</v>
       </c>
       <c r="M128" t="n">
-        <v>0.03228487741627002</v>
+        <v>0.03222360102912581</v>
       </c>
       <c r="N128" t="n">
         <v>3.174942339078444e-07</v>
@@ -24168,40 +24168,40 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.03864101152194512</v>
+        <v>0.03862715091429608</v>
       </c>
       <c r="C129" t="n">
-        <v>0.03327884644462813</v>
+        <v>0.03335177214169069</v>
       </c>
       <c r="D129" t="n">
-        <v>0.06450459038124232</v>
+        <v>0.06443260972561037</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2319993233503357</v>
+        <v>0.2320468904356767</v>
       </c>
       <c r="F129" t="n">
-        <v>0.05394958014959376</v>
+        <v>0.05386184880345155</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03871834741235056</v>
+        <v>0.03875315643837826</v>
       </c>
       <c r="H129" t="n">
-        <v>0.07052009410092538</v>
+        <v>0.07051048617971412</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0505003364347493</v>
+        <v>0.05054349332674744</v>
       </c>
       <c r="J129" t="n">
-        <v>0.07767657784117256</v>
+        <v>0.07770429905647064</v>
       </c>
       <c r="K129" t="n">
-        <v>0.2412788426644624</v>
+        <v>0.241264352029193</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05330222676962158</v>
+        <v>0.05333498820588294</v>
       </c>
       <c r="M129" t="n">
-        <v>0.03238971996532328</v>
+        <v>0.03232844977923832</v>
       </c>
       <c r="N129" t="n">
         <v>3.150138102054394e-07</v>
@@ -24353,40 +24353,40 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.03858996341190295</v>
+        <v>0.03857652282266752</v>
       </c>
       <c r="C130" t="n">
-        <v>0.03333531816453438</v>
+        <v>0.03340736597427315</v>
       </c>
       <c r="D130" t="n">
-        <v>0.06423085681099515</v>
+        <v>0.0641595904308631</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2304174912702592</v>
+        <v>0.2304648459044258</v>
       </c>
       <c r="F130" t="n">
-        <v>0.05366467824088943</v>
+        <v>0.05357747069678046</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03867060694731555</v>
+        <v>0.03870545870777486</v>
       </c>
       <c r="H130" t="n">
-        <v>0.07046494592741551</v>
+        <v>0.07045635020174168</v>
       </c>
       <c r="I130" t="n">
-        <v>0.05051379778070866</v>
+        <v>0.05055646383723509</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0779036869255418</v>
+        <v>0.07792978667440595</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2429081746757731</v>
+        <v>0.242893952656931</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05337164213837274</v>
+        <v>0.05340383703816924</v>
       </c>
       <c r="M130" t="n">
-        <v>0.03260921377397837</v>
+        <v>0.03254873112241892</v>
       </c>
       <c r="N130" t="n">
         <v>3.12571842684467e-07</v>
@@ -24538,40 +24538,40 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.03835329002361925</v>
+        <v>0.03833995282353178</v>
       </c>
       <c r="C131" t="n">
-        <v>0.03312309150094678</v>
+        <v>0.03319458509676449</v>
       </c>
       <c r="D131" t="n">
-        <v>0.06385370642341268</v>
+        <v>0.06378298824620471</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2291196052188774</v>
+        <v>0.2291665955866274</v>
       </c>
       <c r="F131" t="n">
-        <v>0.05332429712180121</v>
+        <v>0.05323776040495461</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03862298061608559</v>
+        <v>0.03865756428607984</v>
       </c>
       <c r="H131" t="n">
-        <v>0.07059411023040789</v>
+        <v>0.07058558062570078</v>
       </c>
       <c r="I131" t="n">
-        <v>0.05105418159993672</v>
+        <v>0.05109651945602834</v>
       </c>
       <c r="J131" t="n">
-        <v>0.07835465476037239</v>
+        <v>0.07838039865821564</v>
       </c>
       <c r="K131" t="n">
-        <v>0.2441903311502715</v>
+        <v>0.2441763736152962</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05342370578756942</v>
+        <v>0.05345565303429056</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0325063235387624</v>
+        <v>0.0324463061383688</v>
       </c>
       <c r="N131" t="n">
         <v>3.101674438945865e-07</v>
@@ -24723,40 +24723,40 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.03828767303540267</v>
+        <v>0.03827443764600289</v>
       </c>
       <c r="C132" t="n">
-        <v>0.032957196904581</v>
+        <v>0.03302799084788213</v>
       </c>
       <c r="D132" t="n">
-        <v>0.06349124024986569</v>
+        <v>0.06342121580594826</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2275115728859813</v>
+        <v>0.227558204548634</v>
       </c>
       <c r="F132" t="n">
-        <v>0.05312408285292204</v>
+        <v>0.05303820672170024</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03862240526731562</v>
+        <v>0.03865641714007551</v>
       </c>
       <c r="H132" t="n">
-        <v>0.07060818614990372</v>
+        <v>0.07059510466038067</v>
       </c>
       <c r="I132" t="n">
-        <v>0.05104212532036183</v>
+        <v>0.05108306268757509</v>
       </c>
       <c r="J132" t="n">
-        <v>0.07850955972169361</v>
+        <v>0.07853941629778148</v>
       </c>
       <c r="K132" t="n">
-        <v>0.2456528286566495</v>
+        <v>0.2456392854674963</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05423170026583126</v>
+        <v>0.05426432703970047</v>
       </c>
       <c r="M132" t="n">
-        <v>0.03258460530298962</v>
+        <v>0.03252550775032084</v>
       </c>
       <c r="N132" t="n">
         <v>3.077997534831774e-07</v>
@@ -24908,40 +24908,40 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.03811277631865927</v>
+        <v>0.038099641197361</v>
       </c>
       <c r="C133" t="n">
-        <v>0.03291676670741609</v>
+        <v>0.03298702433296494</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0635371781971649</v>
+        <v>0.06346768424145896</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2286120514432444</v>
+        <v>0.2286583298357255</v>
       </c>
       <c r="F133" t="n">
-        <v>0.05356456645241146</v>
+        <v>0.05347934089794133</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03864780341061061</v>
+        <v>0.03868155761766778</v>
       </c>
       <c r="H133" t="n">
-        <v>0.07071536925269713</v>
+        <v>0.07070238686536745</v>
       </c>
       <c r="I133" t="n">
-        <v>0.05135313132127713</v>
+        <v>0.05139375855692059</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0782705077426958</v>
+        <v>0.07830013813260119</v>
       </c>
       <c r="K133" t="n">
-        <v>0.2442549117716957</v>
+        <v>0.2442414711824603</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05399161062857359</v>
+        <v>0.0540239902299135</v>
       </c>
       <c r="M133" t="n">
-        <v>0.03241931217173652</v>
+        <v>0.03236066232780008</v>
       </c>
       <c r="N133" t="n">
         <v>3.054679371689109e-07</v>
@@ -25093,40 +25093,40 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0381092243926079</v>
+        <v>0.03809618803162015</v>
       </c>
       <c r="C134" t="n">
-        <v>0.03275143161223557</v>
+        <v>0.03282116098496074</v>
       </c>
       <c r="D134" t="n">
-        <v>0.06350526828148778</v>
+        <v>0.06343629683672701</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2296029078967453</v>
+        <v>0.2296488383313882</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0540482978984325</v>
+        <v>0.05396371313760501</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03889095129509425</v>
+        <v>0.03892445171112091</v>
       </c>
       <c r="H134" t="n">
-        <v>0.07115079082961734</v>
+        <v>0.07113790605422247</v>
       </c>
       <c r="I134" t="n">
-        <v>0.05121728536579043</v>
+        <v>0.05125760713349673</v>
       </c>
       <c r="J134" t="n">
-        <v>0.07810811478606801</v>
+        <v>0.07813752239108689</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2427561413766064</v>
+        <v>0.2427428018444329</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05377938505666194</v>
+        <v>0.05381152120235267</v>
       </c>
       <c r="M134" t="n">
-        <v>0.03237565092748403</v>
+        <v>0.0323174420598178</v>
       </c>
       <c r="N134" t="n">
         <v>3.031711857616259e-07</v>
@@ -25278,40 +25278,40 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.03828747434377075</v>
+        <v>0.03827543799520171</v>
       </c>
       <c r="C135" t="n">
-        <v>0.03284072570756427</v>
+        <v>0.03290993471183627</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06378106243043366</v>
+        <v>0.0637111011543761</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2312527100591075</v>
+        <v>0.2312982977293128</v>
       </c>
       <c r="F135" t="n">
-        <v>0.05422660893632681</v>
+        <v>0.05414370858555752</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03885980271822878</v>
+        <v>0.03889290267679365</v>
       </c>
       <c r="H135" t="n">
-        <v>0.07119289542489364</v>
+        <v>0.07118040771325325</v>
       </c>
       <c r="I135" t="n">
-        <v>0.05101019568996412</v>
+        <v>0.05105036700331331</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07766468959611129</v>
+        <v>0.07769327592396277</v>
       </c>
       <c r="K135" t="n">
-        <v>0.2411365081409348</v>
+        <v>0.2411232681575089</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05364329739379953</v>
+        <v>0.05367489280879328</v>
       </c>
       <c r="M135" t="n">
-        <v>0.03234317314859143</v>
+        <v>0.03228554912981713</v>
       </c>
       <c r="N135" t="n">
         <v>3.009087142260914e-07</v>
@@ -25463,40 +25463,40 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.03818829817499199</v>
+        <v>0.03817635098456049</v>
       </c>
       <c r="C136" t="n">
-        <v>0.03279234961660719</v>
+        <v>0.03286029926218632</v>
       </c>
       <c r="D136" t="n">
-        <v>0.06416089281354094</v>
+        <v>0.06409294316796181</v>
       </c>
       <c r="E136" t="n">
-        <v>0.233402253688135</v>
+        <v>0.2334485490510571</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0544657477783826</v>
+        <v>0.05438405886380725</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03886839199030485</v>
+        <v>0.03890139610387186</v>
       </c>
       <c r="H136" t="n">
-        <v>0.07089298528180808</v>
+        <v>0.07087879799317069</v>
       </c>
       <c r="I136" t="n">
-        <v>0.05079183738081744</v>
+        <v>0.05083171112888256</v>
       </c>
       <c r="J136" t="n">
-        <v>0.07738643262120612</v>
+        <v>0.07741480719848091</v>
       </c>
       <c r="K136" t="n">
-        <v>0.239547440426455</v>
+        <v>0.2395342985169803</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05340737604603252</v>
+        <v>0.0534387374209152</v>
       </c>
       <c r="M136" t="n">
-        <v>0.03229698923334132</v>
+        <v>0.03223904535974857</v>
       </c>
       <c r="N136" t="n">
         <v>2.986797607873796e-07</v>
@@ -25648,40 +25648,40 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.03823541271108149</v>
+        <v>0.03822355336763846</v>
       </c>
       <c r="C137" t="n">
-        <v>0.03278055945266758</v>
+        <v>0.03284800946849981</v>
       </c>
       <c r="D137" t="n">
-        <v>0.06437755642972094</v>
+        <v>0.06431010641388872</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2342820709259894</v>
+        <v>0.2343280258818311</v>
       </c>
       <c r="F137" t="n">
-        <v>0.05464059073761558</v>
+        <v>0.05455950247682387</v>
       </c>
       <c r="G137" t="n">
-        <v>0.03892962902787776</v>
+        <v>0.03896239046413912</v>
       </c>
       <c r="H137" t="n">
-        <v>0.07094318544336749</v>
+        <v>0.07092910247302889</v>
       </c>
       <c r="I137" t="n">
-        <v>0.05113393112330515</v>
+        <v>0.05117351168204626</v>
       </c>
       <c r="J137" t="n">
-        <v>0.07734159771446733</v>
+        <v>0.07736976365514453</v>
       </c>
       <c r="K137" t="n">
-        <v>0.2381637822766856</v>
+        <v>0.2381507369988983</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05315076071758516</v>
+        <v>0.05318189149412311</v>
       </c>
       <c r="M137" t="n">
-        <v>0.03222405976160348</v>
+        <v>0.03216654194590479</v>
       </c>
       <c r="N137" t="n">
         <v>2.964835860757077e-07</v>
@@ -25833,40 +25833,40 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.03840074451053715</v>
+        <v>0.03838882457190865</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0327495163227372</v>
+        <v>0.03281632684295128</v>
       </c>
       <c r="D138" t="n">
-        <v>0.06463667659160981</v>
+        <v>0.06456971891165957</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2359797608271672</v>
+        <v>0.2360252331856389</v>
       </c>
       <c r="F138" t="n">
-        <v>0.05510558196009999</v>
+        <v>0.05502537990389586</v>
       </c>
       <c r="G138" t="n">
-        <v>0.03906693663610797</v>
+        <v>0.03909960609753423</v>
       </c>
       <c r="H138" t="n">
-        <v>0.07097984985880759</v>
+        <v>0.07096586968387293</v>
       </c>
       <c r="I138" t="n">
-        <v>0.05094802509426685</v>
+        <v>0.05098731674382007</v>
       </c>
       <c r="J138" t="n">
-        <v>0.07686874102049684</v>
+        <v>0.07689670137036618</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2365332285948438</v>
+        <v>0.2365202785380622</v>
       </c>
       <c r="L138" t="n">
-        <v>0.052844325454352</v>
+        <v>0.05287522899894442</v>
       </c>
       <c r="M138" t="n">
-        <v>0.03209951176814336</v>
+        <v>0.03204241379051546</v>
       </c>
       <c r="N138" t="n">
         <v>2.943194723087317e-07</v>
@@ -26018,40 +26018,40 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.03871839306652595</v>
+        <v>0.03870699778434809</v>
       </c>
       <c r="C139" t="n">
-        <v>0.03293850141520639</v>
+        <v>0.03300570436138355</v>
       </c>
       <c r="D139" t="n">
-        <v>0.06542221419682691</v>
+        <v>0.06535603390417853</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2374410111530594</v>
+        <v>0.2374855696282421</v>
       </c>
       <c r="F139" t="n">
-        <v>0.05521554760612879</v>
+        <v>0.05513402751054867</v>
       </c>
       <c r="G139" t="n">
-        <v>0.03900473605458515</v>
+        <v>0.03903819143431248</v>
       </c>
       <c r="H139" t="n">
-        <v>0.07085528020852783</v>
+        <v>0.07084125524584738</v>
       </c>
       <c r="I139" t="n">
-        <v>0.05078497423935761</v>
+        <v>0.05082398116681262</v>
       </c>
       <c r="J139" t="n">
-        <v>0.07640697402956755</v>
+        <v>0.07643443958148342</v>
       </c>
       <c r="K139" t="n">
-        <v>0.234954794331227</v>
+        <v>0.2349420842087978</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05252859850593241</v>
+        <v>0.05255913201843464</v>
       </c>
       <c r="M139" t="n">
-        <v>0.03204178036382507</v>
+        <v>0.03198538832638075</v>
       </c>
       <c r="N139" t="n">
         <v>2.921867225093931e-07</v>
@@ -26203,40 +26203,40 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.03876038702515135</v>
+        <v>0.03874907372342081</v>
       </c>
       <c r="C140" t="n">
-        <v>0.03285803445306495</v>
+        <v>0.03292475392480919</v>
       </c>
       <c r="D140" t="n">
-        <v>0.06554042264464673</v>
+        <v>0.06547457342688177</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2386939866465329</v>
+        <v>0.2387383695994758</v>
       </c>
       <c r="F140" t="n">
-        <v>0.05532306075866712</v>
+        <v>0.05524212713859476</v>
       </c>
       <c r="G140" t="n">
-        <v>0.03903524224027161</v>
+        <v>0.03906845693381385</v>
       </c>
       <c r="H140" t="n">
-        <v>0.07086826254808334</v>
+        <v>0.07085433848441498</v>
       </c>
       <c r="I140" t="n">
-        <v>0.05113336801778915</v>
+        <v>0.05117209431986678</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07625368425648184</v>
+        <v>0.07628095221449904</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2336148943388383</v>
+        <v>0.2336022756561389</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05233199783190725</v>
+        <v>0.05236231167885191</v>
       </c>
       <c r="M140" t="n">
-        <v>0.03199793343688389</v>
+        <v>0.03194194709755069</v>
       </c>
       <c r="N140" t="n">
         <v>2.900846597575269e-07</v>
@@ -26388,40 +26388,40 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.03863775787930543</v>
+        <v>0.03862652538687296</v>
       </c>
       <c r="C141" t="n">
-        <v>0.03279326165659102</v>
+        <v>0.03285979257330642</v>
       </c>
       <c r="D141" t="n">
-        <v>0.06572376132969669</v>
+        <v>0.06566025454555928</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2407304576232622</v>
+        <v>0.2407729394856671</v>
       </c>
       <c r="F141" t="n">
-        <v>0.05543134211003811</v>
+        <v>0.05535185062513141</v>
       </c>
       <c r="G141" t="n">
-        <v>0.03914062792512824</v>
+        <v>0.03917446940873888</v>
       </c>
       <c r="H141" t="n">
-        <v>0.07099050422370516</v>
+        <v>0.07097523955450206</v>
       </c>
       <c r="I141" t="n">
-        <v>0.05100790018634417</v>
+        <v>0.05104591785303868</v>
       </c>
       <c r="J141" t="n">
-        <v>0.07587174221717879</v>
+        <v>0.07589895941038055</v>
       </c>
       <c r="K141" t="n">
-        <v>0.2321167199970047</v>
+        <v>0.2321050554856325</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05214828618086617</v>
+        <v>0.05217751946245323</v>
       </c>
       <c r="M141" t="n">
-        <v>0.03188040563698313</v>
+        <v>0.03182424317482078</v>
       </c>
       <c r="N141" t="n">
         <v>2.880126264735446e-07</v>
@@ -26573,40 +26573,40 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.03876423218989665</v>
+        <v>0.03875307936053108</v>
       </c>
       <c r="C142" t="n">
-        <v>0.03293759377134498</v>
+        <v>0.03300379582257908</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06597599196195569</v>
+        <v>0.06591307856553452</v>
       </c>
       <c r="E142" t="n">
-        <v>0.242596344359907</v>
+        <v>0.2426385249325075</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0554828953488555</v>
+        <v>0.05540339569337784</v>
       </c>
       <c r="G142" t="n">
-        <v>0.03919275821051995</v>
+        <v>0.03922821848850279</v>
       </c>
       <c r="H142" t="n">
-        <v>0.07089667747204251</v>
+        <v>0.07087980524300228</v>
       </c>
       <c r="I142" t="n">
-        <v>0.05082301446393282</v>
+        <v>0.05086090548677739</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0755119470395029</v>
+        <v>0.07553911418795749</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2306152029364542</v>
+        <v>0.2306034781671212</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05187981653881664</v>
+        <v>0.05190884249216549</v>
       </c>
       <c r="M142" t="n">
-        <v>0.03182645739955197</v>
+        <v>0.03177069325272412</v>
       </c>
       <c r="N142" t="n">
         <v>2.859699837325975e-07</v>
@@ -26758,40 +26758,40 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.03880033086566008</v>
+        <v>0.03878925657734638</v>
       </c>
       <c r="C143" t="n">
-        <v>0.03283199935485172</v>
+        <v>0.03289773519445741</v>
       </c>
       <c r="D143" t="n">
-        <v>0.06624483093395152</v>
+        <v>0.06618236058961782</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2435048589149867</v>
+        <v>0.2435467424413013</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0553416261768916</v>
+        <v>0.05526268637814265</v>
       </c>
       <c r="G143" t="n">
-        <v>0.03917217139250089</v>
+        <v>0.03920738195021625</v>
       </c>
       <c r="H143" t="n">
-        <v>0.07098292259555194</v>
+        <v>0.07096616918502609</v>
       </c>
       <c r="I143" t="n">
-        <v>0.05076879697166487</v>
+        <v>0.05080642115632039</v>
       </c>
       <c r="J143" t="n">
-        <v>0.07548220716813127</v>
+        <v>0.075509182998639</v>
       </c>
       <c r="K143" t="n">
-        <v>0.2297058697419492</v>
+        <v>0.2296943695194696</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0519908020936652</v>
+        <v>0.05201948166083657</v>
       </c>
       <c r="M143" t="n">
-        <v>0.03177156525978719</v>
+        <v>0.03171619381821868</v>
       </c>
       <c r="N143" t="n">
         <v>2.8395611060772e-07</v>
@@ -26943,40 +26943,40 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0387951799415278</v>
+        <v>0.03878418309578972</v>
       </c>
       <c r="C144" t="n">
-        <v>0.03285519142054293</v>
+        <v>0.03292046756896256</v>
       </c>
       <c r="D144" t="n">
-        <v>0.06593229354867225</v>
+        <v>0.06587026005989334</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2420340893758768</v>
+        <v>0.2420756800103991</v>
       </c>
       <c r="F144" t="n">
-        <v>0.05524899889932853</v>
+        <v>0.05517061112714426</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0392688902194759</v>
+        <v>0.03930385454951492</v>
       </c>
       <c r="H144" t="n">
-        <v>0.07069237691604176</v>
+        <v>0.07067574066223287</v>
       </c>
       <c r="I144" t="n">
-        <v>0.05078019095881639</v>
+        <v>0.05081755203728551</v>
       </c>
       <c r="J144" t="n">
-        <v>0.07605066049452251</v>
+        <v>0.07607744768285886</v>
       </c>
       <c r="K144" t="n">
-        <v>0.2309100749857993</v>
+        <v>0.2308986551844559</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0521917347989403</v>
+        <v>0.05222021380969789</v>
       </c>
       <c r="M144" t="n">
-        <v>0.03187308850501125</v>
+        <v>0.03181810427632085</v>
       </c>
       <c r="N144" t="n">
         <v>2.819704035405332e-07</v>
@@ -27128,40 +27128,40 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.03884722306225905</v>
+        <v>0.03883728262647034</v>
       </c>
       <c r="C145" t="n">
-        <v>0.03270669386145889</v>
+        <v>0.03277151670329227</v>
       </c>
       <c r="D145" t="n">
-        <v>0.06553057286031419</v>
+        <v>0.06546897015965179</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2405991478666425</v>
+        <v>0.2406401696650381</v>
       </c>
       <c r="F145" t="n">
-        <v>0.05511719633788745</v>
+        <v>0.05503935292523224</v>
       </c>
       <c r="G145" t="n">
-        <v>0.03924680057973742</v>
+        <v>0.03928166210806681</v>
       </c>
       <c r="H145" t="n">
-        <v>0.07064289698460381</v>
+        <v>0.07062651626647312</v>
       </c>
       <c r="I145" t="n">
-        <v>0.05070448288452966</v>
+        <v>0.0507414445049271</v>
       </c>
       <c r="J145" t="n">
-        <v>0.07621598130862058</v>
+        <v>0.07624132241957488</v>
       </c>
       <c r="K145" t="n">
-        <v>0.2326267783579632</v>
+        <v>0.2326161378914852</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05240009722026213</v>
+        <v>0.05242837846011169</v>
       </c>
       <c r="M145" t="n">
-        <v>0.03204656492140615</v>
+        <v>0.03199168251536148</v>
       </c>
       <c r="N145" t="n">
         <v>2.800122757381684e-07</v>
@@ -27313,40 +27313,40 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0387371222354388</v>
+        <v>0.03872725035437968</v>
       </c>
       <c r="C146" t="n">
-        <v>0.03266730578985824</v>
+        <v>0.03273168157761002</v>
       </c>
       <c r="D146" t="n">
-        <v>0.06526300568189324</v>
+        <v>0.0652018278274423</v>
       </c>
       <c r="E146" t="n">
-        <v>0.2393081618905069</v>
+        <v>0.2393489007799481</v>
       </c>
       <c r="F146" t="n">
-        <v>0.05483510135015354</v>
+        <v>0.05475779478862008</v>
       </c>
       <c r="G146" t="n">
-        <v>0.03913728101977922</v>
+        <v>0.03917190212377531</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0705071991735428</v>
+        <v>0.07049093142588199</v>
       </c>
       <c r="I146" t="n">
-        <v>0.05100759231077794</v>
+        <v>0.0510442990234485</v>
       </c>
       <c r="J146" t="n">
-        <v>0.07658591421613441</v>
+        <v>0.07661108056080627</v>
       </c>
       <c r="K146" t="n">
-        <v>0.234052567071437</v>
+        <v>0.2340419999874863</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05266203615194076</v>
+        <v>0.05268998330817858</v>
       </c>
       <c r="M146" t="n">
-        <v>0.03201298082838986</v>
+        <v>0.03195861596227551</v>
       </c>
       <c r="N146" t="n">
         <v>2.780811565951465e-07</v>
@@ -27498,40 +27498,40 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.03894447554498597</v>
+        <v>0.03893563789726952</v>
       </c>
       <c r="C147" t="n">
-        <v>0.03259849213159368</v>
+        <v>0.03266228890104679</v>
       </c>
       <c r="D147" t="n">
-        <v>0.06505171542884823</v>
+        <v>0.06499109468904322</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2378590743171605</v>
+        <v>0.2378998103496035</v>
       </c>
       <c r="F147" t="n">
-        <v>0.05460713479870739</v>
+        <v>0.05453049582241631</v>
       </c>
       <c r="G147" t="n">
-        <v>0.03910231040967192</v>
+        <v>0.03913697055930987</v>
       </c>
       <c r="H147" t="n">
-        <v>0.07035043758784139</v>
+        <v>0.07033483361609202</v>
       </c>
       <c r="I147" t="n">
-        <v>0.05091382658270533</v>
+        <v>0.05095028187953568</v>
       </c>
       <c r="J147" t="n">
-        <v>0.07675911306472223</v>
+        <v>0.0767836927724336</v>
       </c>
       <c r="K147" t="n">
-        <v>0.235597188854732</v>
+        <v>0.2355866941480687</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05287578437575689</v>
+        <v>0.05290160687767839</v>
       </c>
       <c r="M147" t="n">
-        <v>0.03214694356858139</v>
+        <v>0.03209308915280928</v>
       </c>
       <c r="N147" t="n">
         <v>2.761764911390154e-07</v>
@@ -27683,40 +27683,40 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0388755328747898</v>
+        <v>0.03886675534712584</v>
       </c>
       <c r="C148" t="n">
-        <v>0.03267462102681438</v>
+        <v>0.03273798380463857</v>
       </c>
       <c r="D148" t="n">
-        <v>0.06484343702199333</v>
+        <v>0.06478322866817339</v>
       </c>
       <c r="E148" t="n">
-        <v>0.2364800358562005</v>
+        <v>0.2365204947727766</v>
       </c>
       <c r="F148" t="n">
-        <v>0.05439104736065915</v>
+        <v>0.05431506688681803</v>
       </c>
       <c r="G148" t="n">
-        <v>0.03904902619502267</v>
+        <v>0.03908345056132975</v>
       </c>
       <c r="H148" t="n">
-        <v>0.07030552790862923</v>
+        <v>0.07029003008634756</v>
       </c>
       <c r="I148" t="n">
-        <v>0.050907877515636</v>
+        <v>0.05094353622177082</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0768398486589652</v>
+        <v>0.07686467260438984</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2370928170062404</v>
+        <v>0.2370817079477907</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05305878323991438</v>
+        <v>0.0530844300785575</v>
       </c>
       <c r="M148" t="n">
-        <v>0.03230706205588624</v>
+        <v>0.03225425974103276</v>
       </c>
       <c r="N148" t="n">
         <v>2.742977394986139e-07</v>
@@ -27868,40 +27868,40 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.03875371409796119</v>
+        <v>0.03874499587791658</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0325739945304067</v>
+        <v>0.03263692918135369</v>
       </c>
       <c r="D149" t="n">
-        <v>0.06455501387559209</v>
+        <v>0.06449521233497363</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2353384058843626</v>
+        <v>0.2353787276520689</v>
       </c>
       <c r="F149" t="n">
-        <v>0.05433943953832666</v>
+        <v>0.05426383622387735</v>
       </c>
       <c r="G149" t="n">
-        <v>0.03909399712407716</v>
+        <v>0.0391281888933146</v>
       </c>
       <c r="H149" t="n">
-        <v>0.07023098379119427</v>
+        <v>0.07021545446173982</v>
       </c>
       <c r="I149" t="n">
-        <v>0.05087312973746715</v>
+        <v>0.05090868372858656</v>
       </c>
       <c r="J149" t="n">
-        <v>0.07759215839698089</v>
+        <v>0.07761681461304452</v>
       </c>
       <c r="K149" t="n">
-        <v>0.2381362734077397</v>
+        <v>0.2381252394104958</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0530973656263469</v>
+        <v>0.05312283917553973</v>
       </c>
       <c r="M149" t="n">
-        <v>0.03226245438600028</v>
+        <v>0.03221000884354445</v>
       </c>
       <c r="N149" t="n">
         <v>2.724443763938935e-07</v>
@@ -28053,40 +28053,40 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.03863271862482746</v>
+        <v>0.03862460014810808</v>
       </c>
       <c r="C150" t="n">
-        <v>0.03246389408960011</v>
+        <v>0.03252654166828473</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0643757317622818</v>
+        <v>0.06431633157428494</v>
       </c>
       <c r="E150" t="n">
-        <v>0.2338722062461124</v>
+        <v>0.2339122573979281</v>
       </c>
       <c r="F150" t="n">
-        <v>0.05411641273199055</v>
+        <v>0.05404212867000814</v>
       </c>
       <c r="G150" t="n">
-        <v>0.03907855830466721</v>
+        <v>0.03911860945648287</v>
       </c>
       <c r="H150" t="n">
-        <v>0.07030884985675624</v>
+        <v>0.07028801243317648</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05085156731928846</v>
+        <v>0.05088674738507248</v>
       </c>
       <c r="J150" t="n">
-        <v>0.07783278346439486</v>
+        <v>0.07785713889455304</v>
       </c>
       <c r="K150" t="n">
-        <v>0.239618193452205</v>
+        <v>0.2396058804291806</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05336369463215791</v>
+        <v>0.0533881853702614</v>
       </c>
       <c r="M150" t="n">
-        <v>0.03233034514756617</v>
+        <v>0.03227852220450741</v>
       </c>
       <c r="N150" t="n">
         <v>2.706158906462835e-07</v>
@@ -28238,40 +28238,40 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.03848376712835091</v>
+        <v>0.038475837180702</v>
       </c>
       <c r="C151" t="n">
-        <v>0.03237004630282991</v>
+        <v>0.03243227623098997</v>
       </c>
       <c r="D151" t="n">
-        <v>0.06416953959261575</v>
+        <v>0.06411053540587219</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2324643992392627</v>
+        <v>0.2325037801657225</v>
       </c>
       <c r="F151" t="n">
-        <v>0.05391557965901225</v>
+        <v>0.05384205963589444</v>
       </c>
       <c r="G151" t="n">
-        <v>0.03909773324462545</v>
+        <v>0.03913724857697762</v>
       </c>
       <c r="H151" t="n">
-        <v>0.07040436012714797</v>
+        <v>0.07038379602561776</v>
       </c>
       <c r="I151" t="n">
-        <v>0.05082451294664758</v>
+        <v>0.05085878644919793</v>
       </c>
       <c r="J151" t="n">
-        <v>0.07795380469479782</v>
+        <v>0.07797786334952925</v>
       </c>
       <c r="K151" t="n">
-        <v>0.2411136872240479</v>
+        <v>0.2411003810407048</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05369031538342641</v>
+        <v>0.05371437403815783</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0323230042405059</v>
+        <v>0.03227381168390422</v>
       </c>
       <c r="N151" t="n">
         <v>2.688117847086416e-07</v>
@@ -28423,40 +28423,40 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.03836122188841792</v>
+        <v>0.03835334445697861</v>
       </c>
       <c r="C152" t="n">
-        <v>0.03229573319593669</v>
+        <v>0.0323575510053672</v>
       </c>
       <c r="D152" t="n">
-        <v>0.06402495890717862</v>
+        <v>0.06396634547663868</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2312358581747244</v>
+        <v>0.2312749783003467</v>
       </c>
       <c r="F152" t="n">
-        <v>0.05386467453991461</v>
+        <v>0.05379164140436712</v>
       </c>
       <c r="G152" t="n">
-        <v>0.03913694861150925</v>
+        <v>0.03917620225291869</v>
       </c>
       <c r="H152" t="n">
-        <v>0.07029365862763662</v>
+        <v>0.07027323071220926</v>
       </c>
       <c r="I152" t="n">
-        <v>0.05071703985886847</v>
+        <v>0.05075108638458074</v>
       </c>
       <c r="J152" t="n">
-        <v>0.07821968981345308</v>
+        <v>0.07824358913934522</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2426106021415131</v>
+        <v>0.2425973840785895</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05371607146886458</v>
+        <v>0.05373997079475673</v>
       </c>
       <c r="M152" t="n">
-        <v>0.03229172772232348</v>
+        <v>0.03224286094424234</v>
       </c>
       <c r="N152" t="n">
         <v>2.670315742138824e-07</v>
@@ -28608,40 +28608,40 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03829467041729846</v>
+        <v>0.03828684481106599</v>
       </c>
       <c r="C153" t="n">
-        <v>0.03218512678543196</v>
+        <v>0.0322465378987478</v>
       </c>
       <c r="D153" t="n">
-        <v>0.06375587716291799</v>
+        <v>0.06369764934705263</v>
       </c>
       <c r="E153" t="n">
-        <v>0.2298411057077584</v>
+        <v>0.2298798358267395</v>
       </c>
       <c r="F153" t="n">
-        <v>0.05370076897855412</v>
+        <v>0.05362834896155531</v>
       </c>
       <c r="G153" t="n">
-        <v>0.03916357798389039</v>
+        <v>0.03920244074026521</v>
       </c>
       <c r="H153" t="n">
-        <v>0.07039597036986733</v>
+        <v>0.07037594212340795</v>
       </c>
       <c r="I153" t="n">
-        <v>0.05075064806630596</v>
+        <v>0.05078460323911126</v>
       </c>
       <c r="J153" t="n">
-        <v>0.07841854313208881</v>
+        <v>0.07844201995078622</v>
       </c>
       <c r="K153" t="n">
-        <v>0.2440488254162957</v>
+        <v>0.2440356943143124</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05381496977459071</v>
+        <v>0.05383871186807566</v>
       </c>
       <c r="M153" t="n">
-        <v>0.03231312187042069</v>
+        <v>0.03226457658430061</v>
       </c>
       <c r="N153" t="n">
         <v>2.652747875414227e-07</v>
@@ -28793,40 +28793,40 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.03814465579112165</v>
+        <v>0.03813688133264233</v>
       </c>
       <c r="C154" t="n">
-        <v>0.03208057817725318</v>
+        <v>0.03214158791074342</v>
       </c>
       <c r="D154" t="n">
-        <v>0.06356397252690853</v>
+        <v>0.06350625705548578</v>
       </c>
       <c r="E154" t="n">
-        <v>0.228556165784661</v>
+        <v>0.2285946427656094</v>
       </c>
       <c r="F154" t="n">
-        <v>0.05349249099315808</v>
+        <v>0.05341988545719021</v>
       </c>
       <c r="G154" t="n">
-        <v>0.03916587703204909</v>
+        <v>0.03920488109492838</v>
       </c>
       <c r="H154" t="n">
-        <v>0.07047731090178053</v>
+        <v>0.07045715001792738</v>
       </c>
       <c r="I154" t="n">
-        <v>0.05074771183851053</v>
+        <v>0.05078197216401261</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0783457217352644</v>
+        <v>0.07836864979925426</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2455608830361711</v>
+        <v>0.2455478377583838</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05403802079153738</v>
+        <v>0.05406094885552724</v>
       </c>
       <c r="M154" t="n">
-        <v>0.03234767694568671</v>
+        <v>0.0323003713423973</v>
       </c>
       <c r="N154" t="n">
         <v>2.635409654006291e-07</v>
@@ -28978,40 +28978,40 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.03808757521384283</v>
+        <v>0.03807985123886013</v>
       </c>
       <c r="C155" t="n">
-        <v>0.03201574538845965</v>
+        <v>0.03207635895484931</v>
       </c>
       <c r="D155" t="n">
-        <v>0.06386994187643368</v>
+        <v>0.0638126011807994</v>
       </c>
       <c r="E155" t="n">
-        <v>0.2291353834770298</v>
+        <v>0.2291736106074527</v>
       </c>
       <c r="F155" t="n">
-        <v>0.05392617503260434</v>
+        <v>0.05385404096115574</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0393005011157871</v>
+        <v>0.03933925190553081</v>
       </c>
       <c r="H155" t="n">
-        <v>0.07091211242337228</v>
+        <v>0.07089208245434934</v>
       </c>
       <c r="I155" t="n">
-        <v>0.05076903298713343</v>
+        <v>0.05080307084298939</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0781683287177128</v>
+        <v>0.07819110789817026</v>
       </c>
       <c r="K155" t="n">
-        <v>0.2442108807504667</v>
+        <v>0.2441979201822753</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05382864348409398</v>
+        <v>0.05385142266455143</v>
       </c>
       <c r="M155" t="n">
-        <v>0.03227731321922971</v>
+        <v>0.03223031479518244</v>
       </c>
       <c r="N155" t="n">
         <v>2.618296604304951e-07</v>
@@ -29163,40 +29163,40 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.03831881641304058</v>
+        <v>0.03831114227015454</v>
       </c>
       <c r="C156" t="n">
-        <v>0.03219797207522481</v>
+        <v>0.03225819458634744</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0641585660018561</v>
+        <v>0.06410159524619366</v>
       </c>
       <c r="E156" t="n">
-        <v>0.2303725666300953</v>
+        <v>0.2304105471338702</v>
       </c>
       <c r="F156" t="n">
-        <v>0.05421886005159886</v>
+        <v>0.05414719136125638</v>
       </c>
       <c r="G156" t="n">
-        <v>0.03946707630114117</v>
+        <v>0.03950557708578976</v>
       </c>
       <c r="H156" t="n">
-        <v>0.07061733276709431</v>
+        <v>0.07059743202367798</v>
       </c>
       <c r="I156" t="n">
-        <v>0.05058183660449093</v>
+        <v>0.05061565486127686</v>
       </c>
       <c r="J156" t="n">
-        <v>0.07785704112365061</v>
+        <v>0.07787967334165349</v>
       </c>
       <c r="K156" t="n">
-        <v>0.2427374318025586</v>
+        <v>0.2427245548509363</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05355524179728426</v>
+        <v>0.05357787401528715</v>
       </c>
       <c r="M156" t="n">
-        <v>0.03225897500765788</v>
+        <v>0.03221227979924963</v>
       </c>
       <c r="N156" t="n">
         <v>2.601404368148145e-07</v>
@@ -29348,40 +29348,40 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.03834664727086251</v>
+        <v>0.03833941003050497</v>
       </c>
       <c r="C157" t="n">
-        <v>0.03220080860652624</v>
+        <v>0.03226051583947594</v>
       </c>
       <c r="D157" t="n">
-        <v>0.06465026811390796</v>
+        <v>0.06459379179183215</v>
       </c>
       <c r="E157" t="n">
-        <v>0.231813073454371</v>
+        <v>0.2318508104933782</v>
       </c>
       <c r="F157" t="n">
-        <v>0.05432712016248639</v>
+        <v>0.05425591088682558</v>
       </c>
       <c r="G157" t="n">
-        <v>0.03944244300285509</v>
+        <v>0.03948056775116714</v>
       </c>
       <c r="H157" t="n">
-        <v>0.07038901200813259</v>
+        <v>0.0703689803607144</v>
       </c>
       <c r="I157" t="n">
-        <v>0.05048711797063645</v>
+        <v>0.05052097791659494</v>
       </c>
       <c r="J157" t="n">
-        <v>0.07763219724168093</v>
+        <v>0.07765442590849336</v>
       </c>
       <c r="K157" t="n">
-        <v>0.2413653260712796</v>
+        <v>0.2413525316642189</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05339713477654245</v>
+        <v>0.05341975115265976</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0322064950096643</v>
+        <v>0.03215996989308011</v>
       </c>
       <c r="N157" t="n">
         <v>2.584728699121554e-07</v>
@@ -29533,40 +29533,40 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.03841791252153972</v>
+        <v>0.03841072137825452</v>
       </c>
       <c r="C158" t="n">
-        <v>0.03215776546522781</v>
+        <v>0.0322170923973307</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06465595451704603</v>
+        <v>0.06459983791676688</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2329668461327765</v>
+        <v>0.2330043428084779</v>
       </c>
       <c r="F158" t="n">
-        <v>0.05440112736580588</v>
+        <v>0.05433037165241044</v>
       </c>
       <c r="G158" t="n">
-        <v>0.03946319656335263</v>
+        <v>0.03950107847887287</v>
       </c>
       <c r="H158" t="n">
-        <v>0.07042697541669143</v>
+        <v>0.07040707135938419</v>
       </c>
       <c r="I158" t="n">
-        <v>0.05071990407014858</v>
+        <v>0.05075354834766147</v>
       </c>
       <c r="J158" t="n">
-        <v>0.07742370100664449</v>
+        <v>0.07744578808959189</v>
       </c>
       <c r="K158" t="n">
-        <v>0.2401428366517677</v>
+        <v>0.2401301237377457</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05329446177952289</v>
+        <v>0.05331693410228913</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0321469787503</v>
+        <v>0.03210074997203801</v>
       </c>
       <c r="N158" t="n">
         <v>2.568265458999761e-07</v>
@@ -29718,40 +29718,40 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.03832226738997453</v>
+        <v>0.03831499415972371</v>
       </c>
       <c r="C159" t="n">
-        <v>0.03218978588375745</v>
+        <v>0.03225014093478618</v>
       </c>
       <c r="D159" t="n">
-        <v>0.06492200162358916</v>
+        <v>0.06486483658582833</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2345223746254606</v>
+        <v>0.2345588683772453</v>
       </c>
       <c r="F159" t="n">
-        <v>0.05445480248841451</v>
+        <v>0.05438487739758207</v>
       </c>
       <c r="G159" t="n">
-        <v>0.03947654179083262</v>
+        <v>0.03951507715110888</v>
       </c>
       <c r="H159" t="n">
-        <v>0.07071340691120202</v>
+        <v>0.07069248042416458</v>
       </c>
       <c r="I159" t="n">
-        <v>0.0506632803187155</v>
+        <v>0.05069671165776313</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0770776109811996</v>
+        <v>0.07709994107407492</v>
       </c>
       <c r="K159" t="n">
-        <v>0.2387542462266609</v>
+        <v>0.2387418689751814</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05306089429087153</v>
+        <v>0.05308373478586972</v>
       </c>
       <c r="M159" t="n">
-        <v>0.03203730324955167</v>
+        <v>0.03199098425690172</v>
       </c>
       <c r="N159" t="n">
         <v>2.552010614322547e-07</v>
@@ -29903,40 +29903,40 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.03834625468471104</v>
+        <v>0.03833940759208167</v>
       </c>
       <c r="C160" t="n">
-        <v>0.03228252017134469</v>
+        <v>0.03234186164079924</v>
       </c>
       <c r="D160" t="n">
-        <v>0.06526445817497846</v>
+        <v>0.0652082866558153</v>
       </c>
       <c r="E160" t="n">
-        <v>0.2360746936655137</v>
+        <v>0.2361105775028121</v>
       </c>
       <c r="F160" t="n">
-        <v>0.05462255465279598</v>
+        <v>0.05455332293843234</v>
       </c>
       <c r="G160" t="n">
-        <v>0.03942999729032649</v>
+        <v>0.03946790989581134</v>
       </c>
       <c r="H160" t="n">
-        <v>0.07075886961601378</v>
+        <v>0.07073807474210235</v>
       </c>
       <c r="I160" t="n">
-        <v>0.05046776420489595</v>
+        <v>0.05050136567798453</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0766870570549209</v>
+        <v>0.07670924670696054</v>
       </c>
       <c r="K160" t="n">
-        <v>0.2374538756382853</v>
+        <v>0.2374418298271781</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05281872613899167</v>
+        <v>0.05284142298307792</v>
       </c>
       <c r="M160" t="n">
-        <v>0.03199075794652649</v>
+        <v>0.0319442230762491</v>
       </c>
       <c r="N160" t="n">
         <v>2.535960233100393e-07</v>
@@ -30088,40 +30088,40 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.03837158021007641</v>
+        <v>0.03836477591177597</v>
       </c>
       <c r="C161" t="n">
-        <v>0.03220675994435596</v>
+        <v>0.03226573052962642</v>
       </c>
       <c r="D161" t="n">
-        <v>0.06546591802584625</v>
+        <v>0.06541009757867786</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2369861494727929</v>
+        <v>0.2370218090361081</v>
       </c>
       <c r="F161" t="n">
-        <v>0.05481454506965586</v>
+        <v>0.05474574605350699</v>
       </c>
       <c r="G161" t="n">
-        <v>0.03942511239692748</v>
+        <v>0.03946278804862805</v>
       </c>
       <c r="H161" t="n">
-        <v>0.07075928408701437</v>
+        <v>0.0707386191810649</v>
       </c>
       <c r="I161" t="n">
-        <v>0.0507889205862785</v>
+        <v>0.05082231205016028</v>
       </c>
       <c r="J161" t="n">
-        <v>0.07658892965867624</v>
+        <v>0.07661098062539062</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2362652718695188</v>
+        <v>0.236253301344731</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05262456906110764</v>
+        <v>0.05264712404991835</v>
       </c>
       <c r="M161" t="n">
-        <v>0.03193635208967561</v>
+        <v>0.03189010806233745</v>
       </c>
       <c r="N161" t="n">
         <v>2.520110481643515e-07</v>
@@ -30273,40 +30273,40 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.03859031092966594</v>
+        <v>0.03858329844832571</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0323349271284227</v>
+        <v>0.03239365665964709</v>
       </c>
       <c r="D162" t="n">
-        <v>0.06624252842027203</v>
+        <v>0.06618717990683669</v>
       </c>
       <c r="E162" t="n">
-        <v>0.23814436720558</v>
+        <v>0.2381799305038055</v>
       </c>
       <c r="F162" t="n">
-        <v>0.05486089553644292</v>
+        <v>0.05479239862049465</v>
       </c>
       <c r="G162" t="n">
-        <v>0.03938485011008969</v>
+        <v>0.03942329353457986</v>
       </c>
       <c r="H162" t="n">
-        <v>0.07081742115748267</v>
+        <v>0.07079613326769985</v>
       </c>
       <c r="I162" t="n">
-        <v>0.05063600075183818</v>
+        <v>0.05066893436956102</v>
       </c>
       <c r="J162" t="n">
-        <v>0.07618209460563621</v>
+        <v>0.07620425905558656</v>
       </c>
       <c r="K162" t="n">
-        <v>0.2348595205892087</v>
+        <v>0.2348473739697444</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05237434478692763</v>
+        <v>0.05239675968264014</v>
       </c>
       <c r="M162" t="n">
-        <v>0.03184718400663381</v>
+        <v>0.03180122720927912</v>
       </c>
       <c r="N162" t="n">
         <v>2.504457621509083e-07</v>
@@ -30458,40 +30458,40 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.03871487059326014</v>
+        <v>0.03870790139884177</v>
       </c>
       <c r="C163" t="n">
-        <v>0.03240003375081297</v>
+        <v>0.03245802740436585</v>
       </c>
       <c r="D163" t="n">
-        <v>0.06650888908303074</v>
+        <v>0.0664537577771854</v>
       </c>
       <c r="E163" t="n">
-        <v>0.2397114156151272</v>
+        <v>0.2397458882375181</v>
       </c>
       <c r="F163" t="n">
-        <v>0.05522028752407172</v>
+        <v>0.05515146672919029</v>
       </c>
       <c r="G163" t="n">
-        <v>0.03946393454333483</v>
+        <v>0.03950139396333358</v>
       </c>
       <c r="H163" t="n">
-        <v>0.07072002481033213</v>
+        <v>0.07070148177518325</v>
       </c>
       <c r="I163" t="n">
-        <v>0.05048210646888093</v>
+        <v>0.05051545904216885</v>
       </c>
       <c r="J163" t="n">
-        <v>0.07581388368066055</v>
+        <v>0.07583528906351698</v>
       </c>
       <c r="K163" t="n">
-        <v>0.233478093457395</v>
+        <v>0.2334661462669635</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05213081874842727</v>
+        <v>0.05215297083068566</v>
       </c>
       <c r="M163" t="n">
-        <v>0.03171481259960659</v>
+        <v>0.03166938838598684</v>
       </c>
       <c r="N163" t="n">
         <v>2.488998006561497e-07</v>
@@ -30643,40 +30643,40 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.03856492602378019</v>
+        <v>0.0385579995851558</v>
       </c>
       <c r="C164" t="n">
-        <v>0.03234448939345795</v>
+        <v>0.03240212725772524</v>
       </c>
       <c r="D164" t="n">
-        <v>0.06651322955961579</v>
+        <v>0.06645843648264067</v>
       </c>
       <c r="E164" t="n">
-        <v>0.2409059880669831</v>
+        <v>0.2409402492008931</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0552573957357628</v>
+        <v>0.0551889971543469</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0394095804767443</v>
+        <v>0.03944668639794641</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0708963046584134</v>
+        <v>0.07087787538421636</v>
       </c>
       <c r="I164" t="n">
-        <v>0.05096003531494207</v>
+        <v>0.05099330695761996</v>
       </c>
       <c r="J164" t="n">
-        <v>0.07576670418899877</v>
+        <v>0.07578773087767995</v>
       </c>
       <c r="K164" t="n">
-        <v>0.2322734191857155</v>
+        <v>0.2322617926637388</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05195707141764285</v>
+        <v>0.0519790875975561</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0315937129211352</v>
+        <v>0.03154856738367263</v>
       </c>
       <c r="N164" t="n">
         <v>2.473728080140874e-07</v>
@@ -30828,40 +30828,40 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.03857354862534734</v>
+        <v>0.0385666644211048</v>
       </c>
       <c r="C165" t="n">
-        <v>0.03230462013698583</v>
+        <v>0.03236227534751709</v>
       </c>
       <c r="D165" t="n">
-        <v>0.06677051160947287</v>
+        <v>0.0667158067721884</v>
       </c>
       <c r="E165" t="n">
-        <v>0.2423844719889105</v>
+        <v>0.2424185242134674</v>
       </c>
       <c r="F165" t="n">
-        <v>0.05551803391060664</v>
+        <v>0.05544906893596264</v>
       </c>
       <c r="G165" t="n">
-        <v>0.03945902939604384</v>
+        <v>0.03949467973944271</v>
       </c>
       <c r="H165" t="n">
-        <v>0.07085050901314441</v>
+        <v>0.07083415902806837</v>
       </c>
       <c r="I165" t="n">
-        <v>0.05090069977936126</v>
+        <v>0.05093389147838778</v>
       </c>
       <c r="J165" t="n">
-        <v>0.07540121388189951</v>
+        <v>0.07542211235906436</v>
       </c>
       <c r="K165" t="n">
-        <v>0.2310409015160493</v>
+        <v>0.2310292229552807</v>
       </c>
       <c r="L165" t="n">
-        <v>0.051739589239202</v>
+        <v>0.05176171703855302</v>
       </c>
       <c r="M165" t="n">
-        <v>0.03155338134901883</v>
+        <v>0.03150838815700509</v>
       </c>
       <c r="N165" t="n">
         <v>2.458644372335137e-07</v>
@@ -31013,40 +31013,40 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.03853368058928431</v>
+        <v>0.03852683810749172</v>
       </c>
       <c r="C166" t="n">
-        <v>0.03239499692393787</v>
+        <v>0.0324532802063497</v>
       </c>
       <c r="D166" t="n">
-        <v>0.06716580127600066</v>
+        <v>0.06711362735233221</v>
       </c>
       <c r="E166" t="n">
-        <v>0.2437004874657341</v>
+        <v>0.2437381211155933</v>
       </c>
       <c r="F166" t="n">
-        <v>0.05586642009294778</v>
+        <v>0.05579579590587433</v>
       </c>
       <c r="G166" t="n">
-        <v>0.03959499839018397</v>
+        <v>0.03962432331215219</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07098451705213665</v>
+        <v>0.07096973240397768</v>
       </c>
       <c r="I166" t="n">
-        <v>0.05075325338626482</v>
+        <v>0.05078575517477959</v>
       </c>
       <c r="J166" t="n">
-        <v>0.07501754913299036</v>
+        <v>0.07503758782966863</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2297160431149665</v>
+        <v>0.2297052906435782</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05146071712874802</v>
+        <v>0.05148271082022417</v>
       </c>
       <c r="M166" t="n">
-        <v>0.03138988522347729</v>
+        <v>0.03134528690465063</v>
       </c>
       <c r="N166" t="n">
         <v>2.443743497351287e-07</v>
@@ -31198,40 +31198,40 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.03839215250955638</v>
+        <v>0.03838535124753363</v>
       </c>
       <c r="C167" t="n">
-        <v>0.03229044886629034</v>
+        <v>0.03234838104459126</v>
       </c>
       <c r="D167" t="n">
-        <v>0.06680661072952522</v>
+        <v>0.06675475110660177</v>
       </c>
       <c r="E167" t="n">
-        <v>0.2422611961525261</v>
+        <v>0.2422986030936512</v>
       </c>
       <c r="F167" t="n">
-        <v>0.05563833123263401</v>
+        <v>0.05556813249247064</v>
       </c>
       <c r="G167" t="n">
-        <v>0.03970831816206582</v>
+        <v>0.03973746642787759</v>
       </c>
       <c r="H167" t="n">
-        <v>0.07088530327434615</v>
+        <v>0.07087060769033271</v>
       </c>
       <c r="I167" t="n">
-        <v>0.05102586107013486</v>
+        <v>0.05105816706474291</v>
       </c>
       <c r="J167" t="n">
-        <v>0.07583759363576764</v>
+        <v>0.0758575116174057</v>
       </c>
       <c r="K167" t="n">
-        <v>0.230999156400607</v>
+        <v>0.2309884687031427</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05154324278829396</v>
+        <v>0.05156510398765279</v>
       </c>
       <c r="M167" t="n">
-        <v>0.03127098826952333</v>
+        <v>0.03122665861526791</v>
       </c>
       <c r="N167" t="n">
         <v>2.429022150981701e-07</v>
@@ -31383,40 +31383,40 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.03836386821928812</v>
+        <v>0.03835686623567446</v>
       </c>
       <c r="C168" t="n">
-        <v>0.03229906389515278</v>
+        <v>0.03235664917418243</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06650616832503015</v>
+        <v>0.06645425706720468</v>
       </c>
       <c r="E168" t="n">
-        <v>0.2410679135670314</v>
+        <v>0.2411073902677498</v>
       </c>
       <c r="F168" t="n">
-        <v>0.05552090110217258</v>
+        <v>0.05545860759278202</v>
       </c>
       <c r="G168" t="n">
-        <v>0.03974820866925249</v>
+        <v>0.0397812870056343</v>
       </c>
       <c r="H168" t="n">
-        <v>0.07091017457031663</v>
+        <v>0.0708842189414039</v>
       </c>
       <c r="I168" t="n">
-        <v>0.05090381725209085</v>
+        <v>0.05093496400678613</v>
       </c>
       <c r="J168" t="n">
-        <v>0.07602584794323371</v>
+        <v>0.07604600882708686</v>
       </c>
       <c r="K168" t="n">
-        <v>0.2323369228962087</v>
+        <v>0.2323262991969328</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05166775780911313</v>
+        <v>0.05168924665537577</v>
       </c>
       <c r="M168" t="n">
-        <v>0.031330254955503</v>
+        <v>0.03128510423358038</v>
       </c>
       <c r="N168" t="n">
         <v>2.414477108161452e-07</v>
@@ -31568,40 +31568,40 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.03842628460831723</v>
+        <v>0.03841968431896054</v>
       </c>
       <c r="C169" t="n">
-        <v>0.03218313090845903</v>
+        <v>0.03224049342323167</v>
       </c>
       <c r="D169" t="n">
-        <v>0.06617174096912409</v>
+        <v>0.06612013870688091</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2398068731333182</v>
+        <v>0.2398465948747193</v>
       </c>
       <c r="F169" t="n">
-        <v>0.05540018874427455</v>
+        <v>0.0553385060401048</v>
       </c>
       <c r="G169" t="n">
-        <v>0.03975546287949264</v>
+        <v>0.03978858433153709</v>
       </c>
       <c r="H169" t="n">
-        <v>0.07087222703843336</v>
+        <v>0.07084666591783384</v>
       </c>
       <c r="I169" t="n">
-        <v>0.0509524337546958</v>
+        <v>0.05098207505417038</v>
       </c>
       <c r="J169" t="n">
-        <v>0.07602585297339436</v>
+        <v>0.0760456538414644</v>
       </c>
       <c r="K169" t="n">
-        <v>0.2338211307183707</v>
+        <v>0.2338097302185728</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05194307718450377</v>
+        <v>0.0519627580473128</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0313993765486679</v>
+        <v>0.03135689468626304</v>
       </c>
       <c r="N169" t="n">
         <v>2.400105220612872e-07</v>
@@ -31753,40 +31753,40 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.03833574170400506</v>
+        <v>0.03832918046961498</v>
       </c>
       <c r="C170" t="n">
-        <v>0.03223128852264742</v>
+        <v>0.03228831161425572</v>
       </c>
       <c r="D170" t="n">
-        <v>0.06592597090462363</v>
+        <v>0.06587467398121029</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2385866433070816</v>
+        <v>0.2386261300085928</v>
       </c>
       <c r="F170" t="n">
-        <v>0.05512104940621426</v>
+        <v>0.05505973168845971</v>
       </c>
       <c r="G170" t="n">
-        <v>0.03965586206328871</v>
+        <v>0.03968878753040983</v>
       </c>
       <c r="H170" t="n">
-        <v>0.07068644469255189</v>
+        <v>0.07066103482118669</v>
       </c>
       <c r="I170" t="n">
-        <v>0.05115293414226593</v>
+        <v>0.05118240004943592</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0767558250937153</v>
+        <v>0.07677550879688554</v>
       </c>
       <c r="K170" t="n">
-        <v>0.2349068644707845</v>
+        <v>0.2348955314295653</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05200804192604916</v>
+        <v>0.05202760633404867</v>
       </c>
       <c r="M170" t="n">
-        <v>0.03141507096452174</v>
+        <v>0.03137284047408378</v>
       </c>
       <c r="N170" t="n">
         <v>2.385903414573742e-07</v>
@@ -31938,40 +31938,40 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.03831469242199814</v>
+        <v>0.03830816978310447</v>
       </c>
       <c r="C171" t="n">
-        <v>0.03226773179383243</v>
+        <v>0.0323247752357934</v>
       </c>
       <c r="D171" t="n">
-        <v>0.06568012741678596</v>
+        <v>0.06562913223998093</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2374248858834677</v>
+        <v>0.2374642589036986</v>
       </c>
       <c r="F171" t="n">
-        <v>0.05496509202257545</v>
+        <v>0.05490401640384385</v>
       </c>
       <c r="G171" t="n">
-        <v>0.03961269756183758</v>
+        <v>0.03964578513004363</v>
       </c>
       <c r="H171" t="n">
-        <v>0.07072924288765525</v>
+        <v>0.07070410107955603</v>
       </c>
       <c r="I171" t="n">
-        <v>0.05107570174699988</v>
+        <v>0.05110463854500087</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07680727499564169</v>
+        <v>0.07682708009919155</v>
       </c>
       <c r="K171" t="n">
-        <v>0.2362157072260166</v>
+        <v>0.2362043222563112</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05216344072759444</v>
+        <v>0.05218253427053771</v>
       </c>
       <c r="M171" t="n">
-        <v>0.03154027966703708</v>
+        <v>0.03149806040437989</v>
       </c>
       <c r="N171" t="n">
         <v>2.371868688605661e-07</v>
@@ -32123,40 +32123,40 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.03822362098670195</v>
+        <v>0.03821749019161211</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0322886576400141</v>
+        <v>0.03234536749459517</v>
       </c>
       <c r="D172" t="n">
-        <v>0.06545649487589325</v>
+        <v>0.06540591581640202</v>
       </c>
       <c r="E172" t="n">
-        <v>0.2362363944982716</v>
+        <v>0.2362755372669222</v>
       </c>
       <c r="F172" t="n">
-        <v>0.05483524608245141</v>
+        <v>0.0547746455309864</v>
       </c>
       <c r="G172" t="n">
-        <v>0.03959998448437243</v>
+        <v>0.03963276065812199</v>
       </c>
       <c r="H172" t="n">
-        <v>0.07066083250773925</v>
+        <v>0.07063571982785199</v>
       </c>
       <c r="I172" t="n">
-        <v>0.0511489876347758</v>
+        <v>0.05117728361211356</v>
       </c>
       <c r="J172" t="n">
-        <v>0.07691660149749387</v>
+        <v>0.07693593708200799</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2373249643264361</v>
+        <v>0.237313645935501</v>
       </c>
       <c r="L172" t="n">
-        <v>0.052366304159827</v>
+        <v>0.05238434284537982</v>
       </c>
       <c r="M172" t="n">
-        <v>0.03173900828022827</v>
+        <v>0.03169845071271082</v>
       </c>
       <c r="N172" t="n">
         <v>2.357998111479312e-07</v>
@@ -32308,40 +32308,40 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.03813313966381961</v>
+        <v>0.03812704451288726</v>
       </c>
       <c r="C173" t="n">
-        <v>0.03222213261829399</v>
+        <v>0.0322785127644182</v>
       </c>
       <c r="D173" t="n">
-        <v>0.06524648087083766</v>
+        <v>0.06519619587564579</v>
       </c>
       <c r="E173" t="n">
-        <v>0.2351522123288025</v>
+        <v>0.2351910103087756</v>
       </c>
       <c r="F173" t="n">
-        <v>0.05480454960819901</v>
+        <v>0.05474441859996258</v>
       </c>
       <c r="G173" t="n">
-        <v>0.03964520595280571</v>
+        <v>0.03967779156740557</v>
       </c>
       <c r="H173" t="n">
-        <v>0.07058688801754279</v>
+        <v>0.07056192134160837</v>
       </c>
       <c r="I173" t="n">
-        <v>0.05111241193092975</v>
+        <v>0.05114054339677135</v>
       </c>
       <c r="J173" t="n">
-        <v>0.07737571401176739</v>
+        <v>0.07739493718009249</v>
       </c>
       <c r="K173" t="n">
-        <v>0.2382981307109806</v>
+        <v>0.238286878124644</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05249261197378335</v>
+        <v>0.05251054578325737</v>
       </c>
       <c r="M173" t="n">
-        <v>0.03172444010177965</v>
+        <v>0.03168411833407335</v>
       </c>
       <c r="N173" t="n">
         <v>2.344288820133503e-07</v>
@@ -32493,40 +32493,40 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.03801888200790284</v>
+        <v>0.03801293862595768</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0320946121145003</v>
+        <v>0.03215113251142965</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06496023236525741</v>
+        <v>0.06491023803477765</v>
       </c>
       <c r="E174" t="n">
-        <v>0.2339816242283946</v>
+        <v>0.2340201979425876</v>
       </c>
       <c r="F174" t="n">
-        <v>0.05467421934552177</v>
+        <v>0.05461455245226852</v>
       </c>
       <c r="G174" t="n">
-        <v>0.03964480484905383</v>
+        <v>0.03967708557059905</v>
       </c>
       <c r="H174" t="n">
-        <v>0.0706178658294345</v>
+        <v>0.07059385922785213</v>
       </c>
       <c r="I174" t="n">
-        <v>0.05110725788322606</v>
+        <v>0.05113476059183499</v>
       </c>
       <c r="J174" t="n">
-        <v>0.07749715562559165</v>
+        <v>0.07751545191903063</v>
       </c>
       <c r="K174" t="n">
-        <v>0.2396111722994584</v>
+        <v>0.2396001012938742</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05279028380581084</v>
+        <v>0.05280683204573654</v>
       </c>
       <c r="M174" t="n">
-        <v>0.03175945198755432</v>
+        <v>0.03172041212575777</v>
       </c>
       <c r="N174" t="n">
         <v>2.330738017704985e-07</v>
@@ -32678,40 +32678,40 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.03788137382287667</v>
+        <v>0.03787546459829903</v>
       </c>
       <c r="C175" t="n">
-        <v>0.03199462747205458</v>
+        <v>0.03205082303911651</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06480217885855565</v>
+        <v>0.06475235598466568</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2327636609106185</v>
+        <v>0.2328021288039475</v>
       </c>
       <c r="F175" t="n">
-        <v>0.05448154433297252</v>
+        <v>0.05442198861860173</v>
       </c>
       <c r="G175" t="n">
-        <v>0.03963791979536935</v>
+        <v>0.03967013086267495</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0706779178302625</v>
+        <v>0.07065416506480333</v>
       </c>
       <c r="I175" t="n">
-        <v>0.05112811731873222</v>
+        <v>0.05115546196579741</v>
       </c>
       <c r="J175" t="n">
-        <v>0.07784140429130205</v>
+        <v>0.07785959543362933</v>
       </c>
       <c r="K175" t="n">
-        <v>0.2408488705386223</v>
+        <v>0.2408379790266557</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05290146402776918</v>
+        <v>0.05291803303001631</v>
       </c>
       <c r="M175" t="n">
-        <v>0.03174574483690193</v>
+        <v>0.03170669760783002</v>
       </c>
       <c r="N175" t="n">
         <v>2.317342971626221e-07</v>
@@ -32863,40 +32863,40 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0378041917357657</v>
+        <v>0.03779843148323622</v>
       </c>
       <c r="C176" t="n">
-        <v>0.03191168380821816</v>
+        <v>0.03196744305270343</v>
       </c>
       <c r="D176" t="n">
-        <v>0.06463279830187756</v>
+        <v>0.06458326013012411</v>
       </c>
       <c r="E176" t="n">
-        <v>0.2316870339595688</v>
+        <v>0.2317255124464657</v>
       </c>
       <c r="F176" t="n">
-        <v>0.05430524154178919</v>
+        <v>0.05424671737608977</v>
       </c>
       <c r="G176" t="n">
-        <v>0.03960415544617476</v>
+        <v>0.03963583683508685</v>
       </c>
       <c r="H176" t="n">
-        <v>0.07053774837488876</v>
+        <v>0.07051355531426498</v>
       </c>
       <c r="I176" t="n">
-        <v>0.05115841558493924</v>
+        <v>0.05118560397687835</v>
       </c>
       <c r="J176" t="n">
-        <v>0.07809082190163216</v>
+        <v>0.0781089090945747</v>
       </c>
       <c r="K176" t="n">
-        <v>0.2421831357086695</v>
+        <v>0.2421723064339141</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05301932276711011</v>
+        <v>0.0530357970893444</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0316945222878571</v>
+        <v>0.03165569818580847</v>
       </c>
       <c r="N176" t="n">
         <v>2.304101011788357e-07</v>
@@ -33048,40 +33048,40 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03773544704927137</v>
+        <v>0.03772994862640233</v>
       </c>
       <c r="C177" t="n">
-        <v>0.03188203225374855</v>
+        <v>0.03193770378529758</v>
       </c>
       <c r="D177" t="n">
-        <v>0.06441814772796003</v>
+        <v>0.06436889102309154</v>
       </c>
       <c r="E177" t="n">
-        <v>0.2305920564284811</v>
+        <v>0.2306303162876115</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0541301403380797</v>
+        <v>0.05407217779700189</v>
       </c>
       <c r="G177" t="n">
-        <v>0.03972759438501056</v>
+        <v>0.03975921031650755</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0703810727789579</v>
+        <v>0.07035770448176448</v>
       </c>
       <c r="I177" t="n">
-        <v>0.05108767968387734</v>
+        <v>0.05111540089917542</v>
       </c>
       <c r="J177" t="n">
-        <v>0.07825412702456512</v>
+        <v>0.0782705077426958</v>
       </c>
       <c r="K177" t="n">
-        <v>0.2432543515434989</v>
+        <v>0.2432430110463315</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05319197193604968</v>
+        <v>0.05320823810370392</v>
       </c>
       <c r="M177" t="n">
-        <v>0.03180436703072335</v>
+        <v>0.03176587807064007</v>
       </c>
       <c r="N177" t="n">
         <v>2.291009528766832e-07</v>
@@ -33233,40 +33233,40 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.03769128492830414</v>
+        <v>0.03768581756997108</v>
       </c>
       <c r="C178" t="n">
-        <v>0.03199760074091818</v>
+        <v>0.03205295774404038</v>
       </c>
       <c r="D178" t="n">
-        <v>0.06460777342173596</v>
+        <v>0.06455879500333565</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2316869408843019</v>
+        <v>0.2317249845860361</v>
       </c>
       <c r="F178" t="n">
-        <v>0.05414347737886185</v>
+        <v>0.05408584230976754</v>
       </c>
       <c r="G178" t="n">
-        <v>0.03973960794712426</v>
+        <v>0.03977104525753934</v>
       </c>
       <c r="H178" t="n">
-        <v>0.07020441199871016</v>
+        <v>0.07018117572579467</v>
       </c>
       <c r="I178" t="n">
-        <v>0.05116296976425548</v>
+        <v>0.05119053436251798</v>
       </c>
       <c r="J178" t="n">
-        <v>0.07801738095994738</v>
+        <v>0.07803355522834934</v>
       </c>
       <c r="K178" t="n">
-        <v>0.2421759539429734</v>
+        <v>0.2421649053230087</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0531027429395047</v>
+        <v>0.05311880330460806</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0317429129652366</v>
+        <v>0.0317046414569052</v>
       </c>
       <c r="N178" t="n">
         <v>2.278065972107133e-07</v>
@@ -33418,40 +33418,40 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.03774513879182845</v>
+        <v>0.03773970214899165</v>
       </c>
       <c r="C179" t="n">
-        <v>0.03192929011715739</v>
+        <v>0.03198433612588003</v>
       </c>
       <c r="D179" t="n">
-        <v>0.06473773068638296</v>
+        <v>0.06468868763745929</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2320863184844271</v>
+        <v>0.2321244882476771</v>
       </c>
       <c r="F179" t="n">
-        <v>0.05458026965295417</v>
+        <v>0.05452295837638286</v>
       </c>
       <c r="G179" t="n">
-        <v>0.03978206764135102</v>
+        <v>0.03981332833766264</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0702948857727361</v>
+        <v>0.07027178004067967</v>
       </c>
       <c r="I179" t="n">
-        <v>0.05130843003573007</v>
+        <v>0.05133583977669896</v>
       </c>
       <c r="J179" t="n">
-        <v>0.07786824250779649</v>
+        <v>0.07788443917291446</v>
       </c>
       <c r="K179" t="n">
-        <v>0.2411135241247628</v>
+        <v>0.2411024243123043</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0530320723417818</v>
+        <v>0.05304804248011491</v>
       </c>
       <c r="M179" t="n">
-        <v>0.03168113002433577</v>
+        <v>0.03164307352447814</v>
       </c>
       <c r="N179" t="n">
         <v>2.265267848668328e-07</v>
@@ -33603,40 +33603,40 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.03789897009420089</v>
+        <v>0.03789074805776915</v>
       </c>
       <c r="C180" t="n">
-        <v>0.03198991640441562</v>
+        <v>0.03204116334381887</v>
       </c>
       <c r="D180" t="n">
-        <v>0.06518486798394202</v>
+        <v>0.06512382217920233</v>
       </c>
       <c r="E180" t="n">
-        <v>0.2331457545176993</v>
+        <v>0.2331920457091163</v>
       </c>
       <c r="F180" t="n">
-        <v>0.05459578610496117</v>
+        <v>0.05453665502103434</v>
       </c>
       <c r="G180" t="n">
-        <v>0.03987867878407119</v>
+        <v>0.03990593539799556</v>
       </c>
       <c r="H180" t="n">
-        <v>0.0701890471436927</v>
+        <v>0.07017395463846185</v>
       </c>
       <c r="I180" t="n">
-        <v>0.05122880587084938</v>
+        <v>0.05124851623215832</v>
       </c>
       <c r="J180" t="n">
-        <v>0.07752636992924206</v>
+        <v>0.07754394030846602</v>
       </c>
       <c r="K180" t="n">
-        <v>0.2399139546992824</v>
+        <v>0.2399084357981159</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05287231211210713</v>
+        <v>0.05288515200461696</v>
       </c>
       <c r="M180" t="n">
-        <v>0.03167196011884334</v>
+        <v>0.03164605507255159</v>
       </c>
       <c r="N180" t="n">
         <v>2.252612721022137e-07</v>
@@ -33788,40 +33788,40 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.03820162675931713</v>
+        <v>0.03819389842050676</v>
       </c>
       <c r="C181" t="n">
-        <v>0.03204102067834654</v>
+        <v>0.03209142288797941</v>
       </c>
       <c r="D181" t="n">
-        <v>0.06530894314406743</v>
+        <v>0.06524846049250799</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2343596343263689</v>
+        <v>0.2344057803494105</v>
       </c>
       <c r="F181" t="n">
-        <v>0.05471563073325134</v>
+        <v>0.05465660414552574</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0398353303808839</v>
+        <v>0.03986243556917535</v>
       </c>
       <c r="H181" t="n">
-        <v>0.07019773346863527</v>
+        <v>0.07018339684011747</v>
       </c>
       <c r="I181" t="n">
-        <v>0.05113460974129106</v>
+        <v>0.05115454661532361</v>
       </c>
       <c r="J181" t="n">
-        <v>0.07721943329995587</v>
+        <v>0.07723589802176928</v>
       </c>
       <c r="K181" t="n">
-        <v>0.2386802237410088</v>
+        <v>0.2386749595102249</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05270727068674691</v>
+        <v>0.05272026325634116</v>
       </c>
       <c r="M181" t="n">
-        <v>0.03165113158560871</v>
+        <v>0.03162492243659962</v>
       </c>
       <c r="N181" t="n">
         <v>2.240098205905347e-07</v>
